--- a/Responsibility_Matrix.xlsx
+++ b/Responsibility_Matrix.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trey\git\SmartHome-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CB344C-6F8B-43D3-9BDF-F1663A2F5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>Area</t>
   </si>
@@ -148,54 +157,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -203,7 +218,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -219,11 +234,21 @@
     </fill>
   </fills>
   <borders count="33">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -238,8 +263,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -247,6 +274,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -258,6 +286,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -272,6 +302,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -284,6 +315,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -295,6 +327,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -309,6 +343,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -317,14 +352,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -339,6 +380,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -347,6 +389,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -361,6 +406,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -375,6 +421,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -386,6 +433,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -397,6 +446,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -405,30 +456,42 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -443,6 +506,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -457,14 +521,18 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -475,6 +543,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -483,6 +552,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -493,6 +563,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -501,12 +572,14 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -515,6 +588,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -525,6 +599,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -533,6 +608,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -543,235 +619,235 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="24" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="26" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="27" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="30" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="31" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="32" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -961,27 +1037,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X705"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.25"/>
-    <col customWidth="1" min="2" max="2" width="62.75"/>
-    <col customWidth="1" min="3" max="15" width="4.63"/>
-    <col customWidth="1" min="16" max="16" width="15.75"/>
-    <col customWidth="1" min="17" max="24" width="7.63"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="62.75" customWidth="1"/>
+    <col min="3" max="15" width="4.625" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="24" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1000,7 +1078,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1037,835 +1115,845 @@
       </c>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="21" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="26" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="27" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="29" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="27" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="27" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="27" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="22"/>
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="35"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="1:17" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="38" t="s">
-        <v>11</v>
+      <c r="C9" s="35"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="36" t="s">
+        <v>39</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="21" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="40"/>
+      <c r="H10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="38"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11">
-      <c r="A11" s="22"/>
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="31" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="22"/>
-      <c r="B12" s="39" t="s">
-        <v>23</v>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="26" t="s">
+        <v>26</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="31" t="s">
+      <c r="E15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="31" t="s">
+      <c r="F15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="22"/>
-      <c r="B13" s="28" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
+      <c r="B22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="31" t="s">
+      <c r="C22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="31" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="22"/>
-      <c r="B14" s="39" t="s">
-        <v>25</v>
+      <c r="E24" s="29" t="s">
+        <v>21</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="F24" s="23"/>
+      <c r="G24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="42" t="s">
+      <c r="E25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="28" t="s">
-        <v>26</v>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="42" t="s">
+        <v>36</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="29" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="H26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="42" t="s">
+      <c r="B32" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="22"/>
-      <c r="B16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="22"/>
-      <c r="B17" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="45"/>
-      <c r="B18" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="69"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="63"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="72"/>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1883,7 +1971,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
@@ -1902,7 +1990,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
@@ -1921,7 +2009,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
@@ -1940,7 +2028,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
@@ -1959,7 +2047,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -1978,7 +2066,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -1997,7 +2085,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -2016,7 +2104,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
@@ -2035,7 +2123,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
@@ -2054,7 +2142,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
@@ -2073,7 +2161,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
@@ -2092,7 +2180,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
@@ -2111,7 +2199,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
@@ -2130,7 +2218,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
@@ -2149,7 +2237,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
@@ -2175,7 +2263,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
@@ -2201,7 +2289,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -2227,7 +2315,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
@@ -2253,7 +2341,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -2279,7 +2367,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -2305,7 +2393,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
@@ -2331,7 +2419,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
@@ -2357,7 +2445,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
@@ -2383,7 +2471,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3"/>
@@ -2409,7 +2497,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
@@ -2435,7 +2523,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -2461,7 +2549,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
@@ -2487,7 +2575,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3"/>
@@ -2513,7 +2601,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -2539,7 +2627,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
@@ -2565,7 +2653,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3"/>
@@ -2591,7 +2679,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
@@ -2617,7 +2705,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
@@ -2643,7 +2731,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
@@ -2669,7 +2757,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
@@ -2695,7 +2783,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -2721,7 +2809,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -2747,7 +2835,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
@@ -2773,7 +2861,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
@@ -2799,7 +2887,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
@@ -2825,7 +2913,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
@@ -2851,7 +2939,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3"/>
@@ -2877,7 +2965,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3"/>
@@ -2903,7 +2991,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -2929,7 +3017,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -2955,7 +3043,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -2981,7 +3069,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3"/>
@@ -3007,7 +3095,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3"/>
@@ -3033,7 +3121,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3"/>
@@ -3059,7 +3147,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="3"/>
@@ -3085,7 +3173,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="3"/>
@@ -3111,7 +3199,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3"/>
@@ -3137,7 +3225,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
@@ -3163,7 +3251,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3"/>
@@ -3189,7 +3277,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="3"/>
@@ -3215,7 +3303,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="3"/>
@@ -3241,7 +3329,7 @@
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="3"/>
@@ -3267,7 +3355,7 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3"/>
@@ -3293,7 +3381,7 @@
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="3"/>
@@ -3319,7 +3407,7 @@
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="3"/>
@@ -3345,7 +3433,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="3"/>
@@ -3371,7 +3459,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3"/>
@@ -3397,7 +3485,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3"/>
@@ -3423,7 +3511,7 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="3"/>
@@ -3449,7 +3537,7 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="3"/>
@@ -3475,7 +3563,7 @@
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="3"/>
@@ -3501,7 +3589,7 @@
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3"/>
@@ -3527,7 +3615,7 @@
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="3"/>
@@ -3553,7 +3641,7 @@
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="3"/>
@@ -3579,7 +3667,7 @@
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="3"/>
@@ -3605,7 +3693,7 @@
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="3"/>
@@ -3631,7 +3719,7 @@
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3"/>
@@ -3657,7 +3745,7 @@
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
@@ -3683,7 +3771,7 @@
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3"/>
@@ -3709,7 +3797,7 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3"/>
@@ -3735,7 +3823,7 @@
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3"/>
@@ -3761,7 +3849,7 @@
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="3"/>
@@ -3787,7 +3875,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="3"/>
@@ -3813,7 +3901,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="3"/>
@@ -3839,7 +3927,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="3"/>
@@ -3865,7 +3953,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="3"/>
@@ -3891,7 +3979,7 @@
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="3"/>
@@ -3917,7 +4005,7 @@
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="3"/>
@@ -3943,7 +4031,7 @@
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3"/>
@@ -3969,7 +4057,7 @@
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="3"/>
@@ -3995,7 +4083,7 @@
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="3"/>
@@ -4021,7 +4109,7 @@
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3"/>
@@ -4047,7 +4135,7 @@
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="3"/>
@@ -4073,7 +4161,7 @@
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="3"/>
@@ -4099,7 +4187,7 @@
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="3"/>
@@ -4125,7 +4213,7 @@
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="3"/>
@@ -4151,7 +4239,7 @@
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="3"/>
@@ -4177,7 +4265,7 @@
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="3"/>
@@ -4203,7 +4291,7 @@
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="3"/>
@@ -4229,7 +4317,7 @@
       <c r="W130" s="4"/>
       <c r="X130" s="4"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="3"/>
@@ -4255,7 +4343,7 @@
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="3"/>
@@ -4281,7 +4369,7 @@
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="3"/>
@@ -4307,7 +4395,7 @@
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="3"/>
@@ -4333,7 +4421,7 @@
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="3"/>
@@ -4359,7 +4447,7 @@
       <c r="W135" s="4"/>
       <c r="X135" s="4"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="3"/>
@@ -4385,7 +4473,7 @@
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3"/>
@@ -4411,7 +4499,7 @@
       <c r="W137" s="4"/>
       <c r="X137" s="4"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3"/>
@@ -4437,7 +4525,7 @@
       <c r="W138" s="4"/>
       <c r="X138" s="4"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="3"/>
@@ -4463,7 +4551,7 @@
       <c r="W139" s="4"/>
       <c r="X139" s="4"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="3"/>
@@ -4489,7 +4577,7 @@
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="3"/>
@@ -4515,7 +4603,7 @@
       <c r="W141" s="4"/>
       <c r="X141" s="4"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="3"/>
@@ -4541,7 +4629,7 @@
       <c r="W142" s="4"/>
       <c r="X142" s="4"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3"/>
@@ -4567,7 +4655,7 @@
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3"/>
@@ -4593,7 +4681,7 @@
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3"/>
@@ -4619,7 +4707,7 @@
       <c r="W145" s="4"/>
       <c r="X145" s="4"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="3"/>
@@ -4645,7 +4733,7 @@
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="3"/>
@@ -4671,7 +4759,7 @@
       <c r="W147" s="4"/>
       <c r="X147" s="4"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="3"/>
@@ -4697,7 +4785,7 @@
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="3"/>
@@ -4723,7 +4811,7 @@
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="3"/>
@@ -4749,7 +4837,7 @@
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="3"/>
@@ -4775,7 +4863,7 @@
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="3"/>
@@ -4801,7 +4889,7 @@
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="3"/>
@@ -4827,7 +4915,7 @@
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="3"/>
@@ -4853,7 +4941,7 @@
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="3"/>
@@ -4879,7 +4967,7 @@
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="3"/>
@@ -4905,7 +4993,7 @@
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3"/>
@@ -4931,7 +5019,7 @@
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
@@ -4957,7 +5045,7 @@
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="3"/>
@@ -4983,7 +5071,7 @@
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3"/>
@@ -5009,7 +5097,7 @@
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="3"/>
@@ -5035,7 +5123,7 @@
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="3"/>
@@ -5061,7 +5149,7 @@
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="3"/>
@@ -5087,7 +5175,7 @@
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3"/>
@@ -5113,7 +5201,7 @@
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3"/>
@@ -5139,7 +5227,7 @@
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="3"/>
@@ -5165,7 +5253,7 @@
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="3"/>
@@ -5191,7 +5279,7 @@
       <c r="W167" s="4"/>
       <c r="X167" s="4"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="3"/>
@@ -5217,7 +5305,7 @@
       <c r="W168" s="4"/>
       <c r="X168" s="4"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="3"/>
@@ -5243,7 +5331,7 @@
       <c r="W169" s="4"/>
       <c r="X169" s="4"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="3"/>
@@ -5269,7 +5357,7 @@
       <c r="W170" s="4"/>
       <c r="X170" s="4"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="3"/>
@@ -5295,7 +5383,7 @@
       <c r="W171" s="4"/>
       <c r="X171" s="4"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="3"/>
@@ -5321,7 +5409,7 @@
       <c r="W172" s="4"/>
       <c r="X172" s="4"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="3"/>
@@ -5347,7 +5435,7 @@
       <c r="W173" s="4"/>
       <c r="X173" s="4"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3"/>
@@ -5373,7 +5461,7 @@
       <c r="W174" s="4"/>
       <c r="X174" s="4"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3"/>
@@ -5399,7 +5487,7 @@
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="3"/>
@@ -5425,7 +5513,7 @@
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="3"/>
@@ -5451,7 +5539,7 @@
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="3"/>
@@ -5477,7 +5565,7 @@
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="3"/>
@@ -5503,7 +5591,7 @@
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="3"/>
@@ -5529,7 +5617,7 @@
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3"/>
@@ -5555,7 +5643,7 @@
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="3"/>
@@ -5581,7 +5669,7 @@
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="3"/>
@@ -5607,7 +5695,7 @@
       <c r="W183" s="4"/>
       <c r="X183" s="4"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="3"/>
@@ -5633,7 +5721,7 @@
       <c r="W184" s="4"/>
       <c r="X184" s="4"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="3"/>
@@ -5659,7 +5747,7 @@
       <c r="W185" s="4"/>
       <c r="X185" s="4"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="3"/>
@@ -5685,7 +5773,7 @@
       <c r="W186" s="4"/>
       <c r="X186" s="4"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="3"/>
@@ -5711,7 +5799,7 @@
       <c r="W187" s="4"/>
       <c r="X187" s="4"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="3"/>
@@ -5737,7 +5825,7 @@
       <c r="W188" s="4"/>
       <c r="X188" s="4"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="3"/>
@@ -5763,7 +5851,7 @@
       <c r="W189" s="4"/>
       <c r="X189" s="4"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="3"/>
@@ -5789,7 +5877,7 @@
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3"/>
@@ -5815,7 +5903,7 @@
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3"/>
@@ -5841,7 +5929,7 @@
       <c r="W192" s="4"/>
       <c r="X192" s="4"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="3"/>
@@ -5867,7 +5955,7 @@
       <c r="W193" s="4"/>
       <c r="X193" s="4"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="3"/>
@@ -5893,7 +5981,7 @@
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
@@ -5919,7 +6007,7 @@
       <c r="W195" s="4"/>
       <c r="X195" s="4"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="3"/>
@@ -5945,7 +6033,7 @@
       <c r="W196" s="4"/>
       <c r="X196" s="4"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="3"/>
@@ -5971,7 +6059,7 @@
       <c r="W197" s="4"/>
       <c r="X197" s="4"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="3"/>
@@ -5997,7 +6085,7 @@
       <c r="W198" s="4"/>
       <c r="X198" s="4"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="3"/>
@@ -6023,7 +6111,7 @@
       <c r="W199" s="4"/>
       <c r="X199" s="4"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="3"/>
@@ -6049,7 +6137,7 @@
       <c r="W200" s="4"/>
       <c r="X200" s="4"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="3"/>
@@ -6075,7 +6163,7 @@
       <c r="W201" s="4"/>
       <c r="X201" s="4"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="3"/>
@@ -6101,7 +6189,7 @@
       <c r="W202" s="4"/>
       <c r="X202" s="4"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="3"/>
@@ -6127,7 +6215,7 @@
       <c r="W203" s="4"/>
       <c r="X203" s="4"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="3"/>
@@ -6153,7 +6241,7 @@
       <c r="W204" s="4"/>
       <c r="X204" s="4"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="3"/>
@@ -6179,7 +6267,7 @@
       <c r="W205" s="4"/>
       <c r="X205" s="4"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="3"/>
@@ -6205,7 +6293,7 @@
       <c r="W206" s="4"/>
       <c r="X206" s="4"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="3"/>
@@ -6231,7 +6319,7 @@
       <c r="W207" s="4"/>
       <c r="X207" s="4"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="3"/>
@@ -6257,7 +6345,7 @@
       <c r="W208" s="4"/>
       <c r="X208" s="4"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="3"/>
@@ -6283,7 +6371,7 @@
       <c r="W209" s="4"/>
       <c r="X209" s="4"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="3"/>
@@ -6309,7 +6397,7 @@
       <c r="W210" s="4"/>
       <c r="X210" s="4"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="3"/>
@@ -6335,7 +6423,7 @@
       <c r="W211" s="4"/>
       <c r="X211" s="4"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="3"/>
@@ -6361,7 +6449,7 @@
       <c r="W212" s="4"/>
       <c r="X212" s="4"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="3"/>
@@ -6387,7 +6475,7 @@
       <c r="W213" s="4"/>
       <c r="X213" s="4"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="3"/>
@@ -6413,7 +6501,7 @@
       <c r="W214" s="4"/>
       <c r="X214" s="4"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="3"/>
@@ -6439,7 +6527,7 @@
       <c r="W215" s="4"/>
       <c r="X215" s="4"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="3"/>
@@ -6465,7 +6553,7 @@
       <c r="W216" s="4"/>
       <c r="X216" s="4"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="3"/>
@@ -6491,7 +6579,7 @@
       <c r="W217" s="4"/>
       <c r="X217" s="4"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3"/>
@@ -6517,7 +6605,7 @@
       <c r="W218" s="4"/>
       <c r="X218" s="4"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3"/>
@@ -6543,7 +6631,7 @@
       <c r="W219" s="4"/>
       <c r="X219" s="4"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="3"/>
@@ -6569,7 +6657,7 @@
       <c r="W220" s="4"/>
       <c r="X220" s="4"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="3"/>
@@ -6595,7 +6683,7 @@
       <c r="W221" s="4"/>
       <c r="X221" s="4"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="3"/>
@@ -6621,7 +6709,7 @@
       <c r="W222" s="4"/>
       <c r="X222" s="4"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="3"/>
@@ -6647,7 +6735,7 @@
       <c r="W223" s="4"/>
       <c r="X223" s="4"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="3"/>
@@ -6673,7 +6761,7 @@
       <c r="W224" s="4"/>
       <c r="X224" s="4"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="3"/>
@@ -6699,7 +6787,7 @@
       <c r="W225" s="4"/>
       <c r="X225" s="4"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="3"/>
@@ -6725,7 +6813,7 @@
       <c r="W226" s="4"/>
       <c r="X226" s="4"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="3"/>
@@ -6751,7 +6839,7 @@
       <c r="W227" s="4"/>
       <c r="X227" s="4"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="3"/>
@@ -6777,7 +6865,7 @@
       <c r="W228" s="4"/>
       <c r="X228" s="4"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="3"/>
@@ -6803,7 +6891,7 @@
       <c r="W229" s="4"/>
       <c r="X229" s="4"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="3"/>
@@ -6829,7 +6917,7 @@
       <c r="W230" s="4"/>
       <c r="X230" s="4"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="3"/>
@@ -6855,7 +6943,7 @@
       <c r="W231" s="4"/>
       <c r="X231" s="4"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="3"/>
@@ -6881,7 +6969,7 @@
       <c r="W232" s="4"/>
       <c r="X232" s="4"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="3"/>
@@ -6907,7 +6995,7 @@
       <c r="W233" s="4"/>
       <c r="X233" s="4"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="3"/>
@@ -6933,7 +7021,7 @@
       <c r="W234" s="4"/>
       <c r="X234" s="4"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="3"/>
@@ -6959,7 +7047,7 @@
       <c r="W235" s="4"/>
       <c r="X235" s="4"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="3"/>
@@ -6985,7 +7073,7 @@
       <c r="W236" s="4"/>
       <c r="X236" s="4"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -7011,7 +7099,7 @@
       <c r="W237" s="4"/>
       <c r="X237" s="4"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -7037,7 +7125,7 @@
       <c r="W238" s="4"/>
       <c r="X238" s="4"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -7063,7 +7151,7 @@
       <c r="W239" s="4"/>
       <c r="X239" s="4"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -7089,7 +7177,7 @@
       <c r="W240" s="4"/>
       <c r="X240" s="4"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -7115,7 +7203,7 @@
       <c r="W241" s="4"/>
       <c r="X241" s="4"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -7141,7 +7229,7 @@
       <c r="W242" s="4"/>
       <c r="X242" s="4"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -7167,7 +7255,7 @@
       <c r="W243" s="4"/>
       <c r="X243" s="4"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -7193,7 +7281,7 @@
       <c r="W244" s="4"/>
       <c r="X244" s="4"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -7219,7 +7307,7 @@
       <c r="W245" s="4"/>
       <c r="X245" s="4"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -7245,7 +7333,7 @@
       <c r="W246" s="4"/>
       <c r="X246" s="4"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -7271,7 +7359,7 @@
       <c r="W247" s="4"/>
       <c r="X247" s="4"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -7297,7 +7385,7 @@
       <c r="W248" s="4"/>
       <c r="X248" s="4"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -7323,7 +7411,7 @@
       <c r="W249" s="4"/>
       <c r="X249" s="4"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -7349,7 +7437,7 @@
       <c r="W250" s="4"/>
       <c r="X250" s="4"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -7375,7 +7463,7 @@
       <c r="W251" s="4"/>
       <c r="X251" s="4"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -7401,7 +7489,7 @@
       <c r="W252" s="4"/>
       <c r="X252" s="4"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -7427,7 +7515,7 @@
       <c r="W253" s="4"/>
       <c r="X253" s="4"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -7453,7 +7541,7 @@
       <c r="W254" s="4"/>
       <c r="X254" s="4"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -7479,7 +7567,7 @@
       <c r="W255" s="4"/>
       <c r="X255" s="4"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -7505,7 +7593,7 @@
       <c r="W256" s="4"/>
       <c r="X256" s="4"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -7531,7 +7619,7 @@
       <c r="W257" s="4"/>
       <c r="X257" s="4"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -7557,7 +7645,7 @@
       <c r="W258" s="4"/>
       <c r="X258" s="4"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -7583,7 +7671,7 @@
       <c r="W259" s="4"/>
       <c r="X259" s="4"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -7609,7 +7697,7 @@
       <c r="W260" s="4"/>
       <c r="X260" s="4"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -7635,7 +7723,7 @@
       <c r="W261" s="4"/>
       <c r="X261" s="4"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -7661,7 +7749,7 @@
       <c r="W262" s="4"/>
       <c r="X262" s="4"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -7687,7 +7775,7 @@
       <c r="W263" s="4"/>
       <c r="X263" s="4"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -7713,7 +7801,7 @@
       <c r="W264" s="4"/>
       <c r="X264" s="4"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -7739,7 +7827,7 @@
       <c r="W265" s="4"/>
       <c r="X265" s="4"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -7765,7 +7853,7 @@
       <c r="W266" s="4"/>
       <c r="X266" s="4"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -7791,7 +7879,7 @@
       <c r="W267" s="4"/>
       <c r="X267" s="4"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -7817,7 +7905,7 @@
       <c r="W268" s="4"/>
       <c r="X268" s="4"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -7843,7 +7931,7 @@
       <c r="W269" s="4"/>
       <c r="X269" s="4"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -7869,7 +7957,7 @@
       <c r="W270" s="4"/>
       <c r="X270" s="4"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -7895,7 +7983,7 @@
       <c r="W271" s="4"/>
       <c r="X271" s="4"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -7921,7 +8009,7 @@
       <c r="W272" s="4"/>
       <c r="X272" s="4"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -7947,7 +8035,7 @@
       <c r="W273" s="4"/>
       <c r="X273" s="4"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -7973,7 +8061,7 @@
       <c r="W274" s="4"/>
       <c r="X274" s="4"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -7999,7 +8087,7 @@
       <c r="W275" s="4"/>
       <c r="X275" s="4"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -8025,7 +8113,7 @@
       <c r="W276" s="4"/>
       <c r="X276" s="4"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -8051,7 +8139,7 @@
       <c r="W277" s="4"/>
       <c r="X277" s="4"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -8077,7 +8165,7 @@
       <c r="W278" s="4"/>
       <c r="X278" s="4"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -8103,7 +8191,7 @@
       <c r="W279" s="4"/>
       <c r="X279" s="4"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -8129,7 +8217,7 @@
       <c r="W280" s="4"/>
       <c r="X280" s="4"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -8155,7 +8243,7 @@
       <c r="W281" s="4"/>
       <c r="X281" s="4"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -8181,7 +8269,7 @@
       <c r="W282" s="4"/>
       <c r="X282" s="4"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -8207,7 +8295,7 @@
       <c r="W283" s="4"/>
       <c r="X283" s="4"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -8233,7 +8321,7 @@
       <c r="W284" s="4"/>
       <c r="X284" s="4"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -8259,7 +8347,7 @@
       <c r="W285" s="4"/>
       <c r="X285" s="4"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -8285,7 +8373,7 @@
       <c r="W286" s="4"/>
       <c r="X286" s="4"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -8311,7 +8399,7 @@
       <c r="W287" s="4"/>
       <c r="X287" s="4"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -8337,7 +8425,7 @@
       <c r="W288" s="4"/>
       <c r="X288" s="4"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -8363,7 +8451,7 @@
       <c r="W289" s="4"/>
       <c r="X289" s="4"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -8389,7 +8477,7 @@
       <c r="W290" s="4"/>
       <c r="X290" s="4"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -8415,7 +8503,7 @@
       <c r="W291" s="4"/>
       <c r="X291" s="4"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -8441,7 +8529,7 @@
       <c r="W292" s="4"/>
       <c r="X292" s="4"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -8467,7 +8555,7 @@
       <c r="W293" s="4"/>
       <c r="X293" s="4"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -8493,7 +8581,7 @@
       <c r="W294" s="4"/>
       <c r="X294" s="4"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -8519,7 +8607,7 @@
       <c r="W295" s="4"/>
       <c r="X295" s="4"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -8545,7 +8633,7 @@
       <c r="W296" s="4"/>
       <c r="X296" s="4"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -8571,7 +8659,7 @@
       <c r="W297" s="4"/>
       <c r="X297" s="4"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -8597,7 +8685,7 @@
       <c r="W298" s="4"/>
       <c r="X298" s="4"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -8623,7 +8711,7 @@
       <c r="W299" s="4"/>
       <c r="X299" s="4"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -8649,7 +8737,7 @@
       <c r="W300" s="4"/>
       <c r="X300" s="4"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -8675,7 +8763,7 @@
       <c r="W301" s="4"/>
       <c r="X301" s="4"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -8701,7 +8789,7 @@
       <c r="W302" s="4"/>
       <c r="X302" s="4"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -8727,7 +8815,7 @@
       <c r="W303" s="4"/>
       <c r="X303" s="4"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -8753,7 +8841,7 @@
       <c r="W304" s="4"/>
       <c r="X304" s="4"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -8779,7 +8867,7 @@
       <c r="W305" s="4"/>
       <c r="X305" s="4"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -8805,7 +8893,7 @@
       <c r="W306" s="4"/>
       <c r="X306" s="4"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -8831,7 +8919,7 @@
       <c r="W307" s="4"/>
       <c r="X307" s="4"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -8857,7 +8945,7 @@
       <c r="W308" s="4"/>
       <c r="X308" s="4"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -8883,7 +8971,7 @@
       <c r="W309" s="4"/>
       <c r="X309" s="4"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -8909,7 +8997,7 @@
       <c r="W310" s="4"/>
       <c r="X310" s="4"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -8935,7 +9023,7 @@
       <c r="W311" s="4"/>
       <c r="X311" s="4"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -8961,7 +9049,7 @@
       <c r="W312" s="4"/>
       <c r="X312" s="4"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -8987,7 +9075,7 @@
       <c r="W313" s="4"/>
       <c r="X313" s="4"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -9013,7 +9101,7 @@
       <c r="W314" s="4"/>
       <c r="X314" s="4"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -9039,7 +9127,7 @@
       <c r="W315" s="4"/>
       <c r="X315" s="4"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -9065,7 +9153,7 @@
       <c r="W316" s="4"/>
       <c r="X316" s="4"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -9091,7 +9179,7 @@
       <c r="W317" s="4"/>
       <c r="X317" s="4"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -9117,7 +9205,7 @@
       <c r="W318" s="4"/>
       <c r="X318" s="4"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -9143,7 +9231,7 @@
       <c r="W319" s="4"/>
       <c r="X319" s="4"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -9169,7 +9257,7 @@
       <c r="W320" s="4"/>
       <c r="X320" s="4"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -9195,7 +9283,7 @@
       <c r="W321" s="4"/>
       <c r="X321" s="4"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -9221,7 +9309,7 @@
       <c r="W322" s="4"/>
       <c r="X322" s="4"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -9247,7 +9335,7 @@
       <c r="W323" s="4"/>
       <c r="X323" s="4"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -9273,7 +9361,7 @@
       <c r="W324" s="4"/>
       <c r="X324" s="4"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -9299,7 +9387,7 @@
       <c r="W325" s="4"/>
       <c r="X325" s="4"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -9325,7 +9413,7 @@
       <c r="W326" s="4"/>
       <c r="X326" s="4"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -9351,7 +9439,7 @@
       <c r="W327" s="4"/>
       <c r="X327" s="4"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -9377,7 +9465,7 @@
       <c r="W328" s="4"/>
       <c r="X328" s="4"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -9403,7 +9491,7 @@
       <c r="W329" s="4"/>
       <c r="X329" s="4"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -9429,7 +9517,7 @@
       <c r="W330" s="4"/>
       <c r="X330" s="4"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -9455,7 +9543,7 @@
       <c r="W331" s="4"/>
       <c r="X331" s="4"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -9481,7 +9569,7 @@
       <c r="W332" s="4"/>
       <c r="X332" s="4"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -9507,7 +9595,7 @@
       <c r="W333" s="4"/>
       <c r="X333" s="4"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -9533,7 +9621,7 @@
       <c r="W334" s="4"/>
       <c r="X334" s="4"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -9559,7 +9647,7 @@
       <c r="W335" s="4"/>
       <c r="X335" s="4"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -9585,7 +9673,7 @@
       <c r="W336" s="4"/>
       <c r="X336" s="4"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -9611,7 +9699,7 @@
       <c r="W337" s="4"/>
       <c r="X337" s="4"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -9637,7 +9725,7 @@
       <c r="W338" s="4"/>
       <c r="X338" s="4"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -9663,7 +9751,7 @@
       <c r="W339" s="4"/>
       <c r="X339" s="4"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -9689,7 +9777,7 @@
       <c r="W340" s="4"/>
       <c r="X340" s="4"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -9715,7 +9803,7 @@
       <c r="W341" s="4"/>
       <c r="X341" s="4"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -9741,7 +9829,7 @@
       <c r="W342" s="4"/>
       <c r="X342" s="4"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -9767,7 +9855,7 @@
       <c r="W343" s="4"/>
       <c r="X343" s="4"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -9793,7 +9881,7 @@
       <c r="W344" s="4"/>
       <c r="X344" s="4"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -9819,7 +9907,7 @@
       <c r="W345" s="4"/>
       <c r="X345" s="4"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -9845,7 +9933,7 @@
       <c r="W346" s="4"/>
       <c r="X346" s="4"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -9871,7 +9959,7 @@
       <c r="W347" s="4"/>
       <c r="X347" s="4"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -9897,7 +9985,7 @@
       <c r="W348" s="4"/>
       <c r="X348" s="4"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -9923,7 +10011,7 @@
       <c r="W349" s="4"/>
       <c r="X349" s="4"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -9949,7 +10037,7 @@
       <c r="W350" s="4"/>
       <c r="X350" s="4"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -9975,7 +10063,7 @@
       <c r="W351" s="4"/>
       <c r="X351" s="4"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -10001,7 +10089,7 @@
       <c r="W352" s="4"/>
       <c r="X352" s="4"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -10027,7 +10115,7 @@
       <c r="W353" s="4"/>
       <c r="X353" s="4"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -10053,7 +10141,7 @@
       <c r="W354" s="4"/>
       <c r="X354" s="4"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -10079,7 +10167,7 @@
       <c r="W355" s="4"/>
       <c r="X355" s="4"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -10105,7 +10193,7 @@
       <c r="W356" s="4"/>
       <c r="X356" s="4"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -10131,7 +10219,7 @@
       <c r="W357" s="4"/>
       <c r="X357" s="4"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -10157,7 +10245,7 @@
       <c r="W358" s="4"/>
       <c r="X358" s="4"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -10183,7 +10271,7 @@
       <c r="W359" s="4"/>
       <c r="X359" s="4"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -10209,7 +10297,7 @@
       <c r="W360" s="4"/>
       <c r="X360" s="4"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -10235,7 +10323,7 @@
       <c r="W361" s="4"/>
       <c r="X361" s="4"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -10261,7 +10349,7 @@
       <c r="W362" s="4"/>
       <c r="X362" s="4"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -10287,7 +10375,7 @@
       <c r="W363" s="4"/>
       <c r="X363" s="4"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -10313,7 +10401,7 @@
       <c r="W364" s="4"/>
       <c r="X364" s="4"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -10339,7 +10427,7 @@
       <c r="W365" s="4"/>
       <c r="X365" s="4"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -10365,7 +10453,7 @@
       <c r="W366" s="4"/>
       <c r="X366" s="4"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -10391,7 +10479,7 @@
       <c r="W367" s="4"/>
       <c r="X367" s="4"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -10417,7 +10505,7 @@
       <c r="W368" s="4"/>
       <c r="X368" s="4"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -10443,7 +10531,7 @@
       <c r="W369" s="4"/>
       <c r="X369" s="4"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -10469,7 +10557,7 @@
       <c r="W370" s="4"/>
       <c r="X370" s="4"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -10495,7 +10583,7 @@
       <c r="W371" s="4"/>
       <c r="X371" s="4"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -10521,7 +10609,7 @@
       <c r="W372" s="4"/>
       <c r="X372" s="4"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -10547,7 +10635,7 @@
       <c r="W373" s="4"/>
       <c r="X373" s="4"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -10573,7 +10661,7 @@
       <c r="W374" s="4"/>
       <c r="X374" s="4"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -10599,7 +10687,7 @@
       <c r="W375" s="4"/>
       <c r="X375" s="4"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -10625,7 +10713,7 @@
       <c r="W376" s="4"/>
       <c r="X376" s="4"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -10651,7 +10739,7 @@
       <c r="W377" s="4"/>
       <c r="X377" s="4"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -10677,7 +10765,7 @@
       <c r="W378" s="4"/>
       <c r="X378" s="4"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -10703,7 +10791,7 @@
       <c r="W379" s="4"/>
       <c r="X379" s="4"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -10729,7 +10817,7 @@
       <c r="W380" s="4"/>
       <c r="X380" s="4"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -10755,7 +10843,7 @@
       <c r="W381" s="4"/>
       <c r="X381" s="4"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -10781,7 +10869,7 @@
       <c r="W382" s="4"/>
       <c r="X382" s="4"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -10807,7 +10895,7 @@
       <c r="W383" s="4"/>
       <c r="X383" s="4"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -10833,7 +10921,7 @@
       <c r="W384" s="4"/>
       <c r="X384" s="4"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -10859,7 +10947,7 @@
       <c r="W385" s="4"/>
       <c r="X385" s="4"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -10885,7 +10973,7 @@
       <c r="W386" s="4"/>
       <c r="X386" s="4"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -10911,7 +10999,7 @@
       <c r="W387" s="4"/>
       <c r="X387" s="4"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -10937,7 +11025,7 @@
       <c r="W388" s="4"/>
       <c r="X388" s="4"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -10963,7 +11051,7 @@
       <c r="W389" s="4"/>
       <c r="X389" s="4"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -10989,7 +11077,7 @@
       <c r="W390" s="4"/>
       <c r="X390" s="4"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -11015,7 +11103,7 @@
       <c r="W391" s="4"/>
       <c r="X391" s="4"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -11041,7 +11129,7 @@
       <c r="W392" s="4"/>
       <c r="X392" s="4"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -11067,7 +11155,7 @@
       <c r="W393" s="4"/>
       <c r="X393" s="4"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -11093,7 +11181,7 @@
       <c r="W394" s="4"/>
       <c r="X394" s="4"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -11119,7 +11207,7 @@
       <c r="W395" s="4"/>
       <c r="X395" s="4"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -11145,7 +11233,7 @@
       <c r="W396" s="4"/>
       <c r="X396" s="4"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -11171,7 +11259,7 @@
       <c r="W397" s="4"/>
       <c r="X397" s="4"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -11197,7 +11285,7 @@
       <c r="W398" s="4"/>
       <c r="X398" s="4"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -11223,7 +11311,7 @@
       <c r="W399" s="4"/>
       <c r="X399" s="4"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -11249,7 +11337,7 @@
       <c r="W400" s="4"/>
       <c r="X400" s="4"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -11275,7 +11363,7 @@
       <c r="W401" s="4"/>
       <c r="X401" s="4"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -11301,7 +11389,7 @@
       <c r="W402" s="4"/>
       <c r="X402" s="4"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -11327,7 +11415,7 @@
       <c r="W403" s="4"/>
       <c r="X403" s="4"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -11353,7 +11441,7 @@
       <c r="W404" s="4"/>
       <c r="X404" s="4"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -11379,7 +11467,7 @@
       <c r="W405" s="4"/>
       <c r="X405" s="4"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -11405,7 +11493,7 @@
       <c r="W406" s="4"/>
       <c r="X406" s="4"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -11431,7 +11519,7 @@
       <c r="W407" s="4"/>
       <c r="X407" s="4"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -11457,7 +11545,7 @@
       <c r="W408" s="4"/>
       <c r="X408" s="4"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -11483,7 +11571,7 @@
       <c r="W409" s="4"/>
       <c r="X409" s="4"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -11509,7 +11597,7 @@
       <c r="W410" s="4"/>
       <c r="X410" s="4"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -11535,7 +11623,7 @@
       <c r="W411" s="4"/>
       <c r="X411" s="4"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -11561,7 +11649,7 @@
       <c r="W412" s="4"/>
       <c r="X412" s="4"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -11587,7 +11675,7 @@
       <c r="W413" s="4"/>
       <c r="X413" s="4"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -11613,7 +11701,7 @@
       <c r="W414" s="4"/>
       <c r="X414" s="4"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -11639,7 +11727,7 @@
       <c r="W415" s="4"/>
       <c r="X415" s="4"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -11665,7 +11753,7 @@
       <c r="W416" s="4"/>
       <c r="X416" s="4"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -11691,7 +11779,7 @@
       <c r="W417" s="4"/>
       <c r="X417" s="4"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -11717,7 +11805,7 @@
       <c r="W418" s="4"/>
       <c r="X418" s="4"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -11743,7 +11831,7 @@
       <c r="W419" s="4"/>
       <c r="X419" s="4"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -11769,7 +11857,7 @@
       <c r="W420" s="4"/>
       <c r="X420" s="4"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -11795,7 +11883,7 @@
       <c r="W421" s="4"/>
       <c r="X421" s="4"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -11821,7 +11909,7 @@
       <c r="W422" s="4"/>
       <c r="X422" s="4"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -11847,7 +11935,7 @@
       <c r="W423" s="4"/>
       <c r="X423" s="4"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -11873,7 +11961,7 @@
       <c r="W424" s="4"/>
       <c r="X424" s="4"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -11899,7 +11987,7 @@
       <c r="W425" s="4"/>
       <c r="X425" s="4"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -11925,7 +12013,7 @@
       <c r="W426" s="4"/>
       <c r="X426" s="4"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -11951,7 +12039,7 @@
       <c r="W427" s="4"/>
       <c r="X427" s="4"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -11977,7 +12065,7 @@
       <c r="W428" s="4"/>
       <c r="X428" s="4"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -12003,7 +12091,7 @@
       <c r="W429" s="4"/>
       <c r="X429" s="4"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -12029,7 +12117,7 @@
       <c r="W430" s="4"/>
       <c r="X430" s="4"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -12055,7 +12143,7 @@
       <c r="W431" s="4"/>
       <c r="X431" s="4"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -12081,7 +12169,7 @@
       <c r="W432" s="4"/>
       <c r="X432" s="4"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -12107,7 +12195,7 @@
       <c r="W433" s="4"/>
       <c r="X433" s="4"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -12133,7 +12221,7 @@
       <c r="W434" s="4"/>
       <c r="X434" s="4"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -12159,7 +12247,7 @@
       <c r="W435" s="4"/>
       <c r="X435" s="4"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -12185,7 +12273,7 @@
       <c r="W436" s="4"/>
       <c r="X436" s="4"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -12211,7 +12299,7 @@
       <c r="W437" s="4"/>
       <c r="X437" s="4"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -12237,7 +12325,7 @@
       <c r="W438" s="4"/>
       <c r="X438" s="4"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -12263,7 +12351,7 @@
       <c r="W439" s="4"/>
       <c r="X439" s="4"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -12289,7 +12377,7 @@
       <c r="W440" s="4"/>
       <c r="X440" s="4"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -12315,7 +12403,7 @@
       <c r="W441" s="4"/>
       <c r="X441" s="4"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -12341,7 +12429,7 @@
       <c r="W442" s="4"/>
       <c r="X442" s="4"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -12367,7 +12455,7 @@
       <c r="W443" s="4"/>
       <c r="X443" s="4"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -12393,7 +12481,7 @@
       <c r="W444" s="4"/>
       <c r="X444" s="4"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -12419,7 +12507,7 @@
       <c r="W445" s="4"/>
       <c r="X445" s="4"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -12445,7 +12533,7 @@
       <c r="W446" s="4"/>
       <c r="X446" s="4"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -12471,7 +12559,7 @@
       <c r="W447" s="4"/>
       <c r="X447" s="4"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -12497,7 +12585,7 @@
       <c r="W448" s="4"/>
       <c r="X448" s="4"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -12523,7 +12611,7 @@
       <c r="W449" s="4"/>
       <c r="X449" s="4"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -12549,7 +12637,7 @@
       <c r="W450" s="4"/>
       <c r="X450" s="4"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -12575,7 +12663,7 @@
       <c r="W451" s="4"/>
       <c r="X451" s="4"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -12601,7 +12689,7 @@
       <c r="W452" s="4"/>
       <c r="X452" s="4"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -12627,7 +12715,7 @@
       <c r="W453" s="4"/>
       <c r="X453" s="4"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -12653,7 +12741,7 @@
       <c r="W454" s="4"/>
       <c r="X454" s="4"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -12679,7 +12767,7 @@
       <c r="W455" s="4"/>
       <c r="X455" s="4"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -12705,7 +12793,7 @@
       <c r="W456" s="4"/>
       <c r="X456" s="4"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -12731,7 +12819,7 @@
       <c r="W457" s="4"/>
       <c r="X457" s="4"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -12757,7 +12845,7 @@
       <c r="W458" s="4"/>
       <c r="X458" s="4"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -12783,7 +12871,7 @@
       <c r="W459" s="4"/>
       <c r="X459" s="4"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -12809,7 +12897,7 @@
       <c r="W460" s="4"/>
       <c r="X460" s="4"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -12835,7 +12923,7 @@
       <c r="W461" s="4"/>
       <c r="X461" s="4"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -12861,7 +12949,7 @@
       <c r="W462" s="4"/>
       <c r="X462" s="4"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -12887,7 +12975,7 @@
       <c r="W463" s="4"/>
       <c r="X463" s="4"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -12913,7 +13001,7 @@
       <c r="W464" s="4"/>
       <c r="X464" s="4"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -12939,7 +13027,7 @@
       <c r="W465" s="4"/>
       <c r="X465" s="4"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -12965,7 +13053,7 @@
       <c r="W466" s="4"/>
       <c r="X466" s="4"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -12991,7 +13079,7 @@
       <c r="W467" s="4"/>
       <c r="X467" s="4"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -13017,7 +13105,7 @@
       <c r="W468" s="4"/>
       <c r="X468" s="4"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -13043,7 +13131,7 @@
       <c r="W469" s="4"/>
       <c r="X469" s="4"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -13069,7 +13157,7 @@
       <c r="W470" s="4"/>
       <c r="X470" s="4"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -13095,7 +13183,7 @@
       <c r="W471" s="4"/>
       <c r="X471" s="4"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -13121,7 +13209,7 @@
       <c r="W472" s="4"/>
       <c r="X472" s="4"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -13147,7 +13235,7 @@
       <c r="W473" s="4"/>
       <c r="X473" s="4"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -13173,7 +13261,7 @@
       <c r="W474" s="4"/>
       <c r="X474" s="4"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -13199,7 +13287,7 @@
       <c r="W475" s="4"/>
       <c r="X475" s="4"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -13225,7 +13313,7 @@
       <c r="W476" s="4"/>
       <c r="X476" s="4"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -13251,7 +13339,7 @@
       <c r="W477" s="4"/>
       <c r="X477" s="4"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -13277,7 +13365,7 @@
       <c r="W478" s="4"/>
       <c r="X478" s="4"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -13303,7 +13391,7 @@
       <c r="W479" s="4"/>
       <c r="X479" s="4"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -13329,7 +13417,7 @@
       <c r="W480" s="4"/>
       <c r="X480" s="4"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -13355,7 +13443,7 @@
       <c r="W481" s="4"/>
       <c r="X481" s="4"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -13381,7 +13469,7 @@
       <c r="W482" s="4"/>
       <c r="X482" s="4"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -13407,7 +13495,7 @@
       <c r="W483" s="4"/>
       <c r="X483" s="4"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -13433,7 +13521,7 @@
       <c r="W484" s="4"/>
       <c r="X484" s="4"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -13459,7 +13547,7 @@
       <c r="W485" s="4"/>
       <c r="X485" s="4"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -13485,7 +13573,7 @@
       <c r="W486" s="4"/>
       <c r="X486" s="4"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -13511,7 +13599,7 @@
       <c r="W487" s="4"/>
       <c r="X487" s="4"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -13537,7 +13625,7 @@
       <c r="W488" s="4"/>
       <c r="X488" s="4"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -13563,7 +13651,7 @@
       <c r="W489" s="4"/>
       <c r="X489" s="4"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -13589,7 +13677,7 @@
       <c r="W490" s="4"/>
       <c r="X490" s="4"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -13615,7 +13703,7 @@
       <c r="W491" s="4"/>
       <c r="X491" s="4"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -13641,7 +13729,7 @@
       <c r="W492" s="4"/>
       <c r="X492" s="4"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -13667,7 +13755,7 @@
       <c r="W493" s="4"/>
       <c r="X493" s="4"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -13693,7 +13781,7 @@
       <c r="W494" s="4"/>
       <c r="X494" s="4"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -13719,7 +13807,7 @@
       <c r="W495" s="4"/>
       <c r="X495" s="4"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -13745,7 +13833,7 @@
       <c r="W496" s="4"/>
       <c r="X496" s="4"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -13771,7 +13859,7 @@
       <c r="W497" s="4"/>
       <c r="X497" s="4"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -13797,7 +13885,7 @@
       <c r="W498" s="4"/>
       <c r="X498" s="4"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -13823,7 +13911,7 @@
       <c r="W499" s="4"/>
       <c r="X499" s="4"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -13849,7 +13937,7 @@
       <c r="W500" s="4"/>
       <c r="X500" s="4"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -13875,7 +13963,7 @@
       <c r="W501" s="4"/>
       <c r="X501" s="4"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -13901,7 +13989,7 @@
       <c r="W502" s="4"/>
       <c r="X502" s="4"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -13927,7 +14015,7 @@
       <c r="W503" s="4"/>
       <c r="X503" s="4"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -13953,7 +14041,7 @@
       <c r="W504" s="4"/>
       <c r="X504" s="4"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -13979,7 +14067,7 @@
       <c r="W505" s="4"/>
       <c r="X505" s="4"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -14005,7 +14093,7 @@
       <c r="W506" s="4"/>
       <c r="X506" s="4"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -14031,7 +14119,7 @@
       <c r="W507" s="4"/>
       <c r="X507" s="4"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -14057,7 +14145,7 @@
       <c r="W508" s="4"/>
       <c r="X508" s="4"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -14083,7 +14171,7 @@
       <c r="W509" s="4"/>
       <c r="X509" s="4"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -14109,7 +14197,7 @@
       <c r="W510" s="4"/>
       <c r="X510" s="4"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -14135,7 +14223,7 @@
       <c r="W511" s="4"/>
       <c r="X511" s="4"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -14161,7 +14249,7 @@
       <c r="W512" s="4"/>
       <c r="X512" s="4"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -14187,7 +14275,7 @@
       <c r="W513" s="4"/>
       <c r="X513" s="4"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -14213,7 +14301,7 @@
       <c r="W514" s="4"/>
       <c r="X514" s="4"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -14239,7 +14327,7 @@
       <c r="W515" s="4"/>
       <c r="X515" s="4"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -14265,7 +14353,7 @@
       <c r="W516" s="4"/>
       <c r="X516" s="4"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -14291,7 +14379,7 @@
       <c r="W517" s="4"/>
       <c r="X517" s="4"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -14317,7 +14405,7 @@
       <c r="W518" s="4"/>
       <c r="X518" s="4"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -14343,7 +14431,7 @@
       <c r="W519" s="4"/>
       <c r="X519" s="4"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -14369,7 +14457,7 @@
       <c r="W520" s="4"/>
       <c r="X520" s="4"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -14395,7 +14483,7 @@
       <c r="W521" s="4"/>
       <c r="X521" s="4"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -14421,7 +14509,7 @@
       <c r="W522" s="4"/>
       <c r="X522" s="4"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -14447,7 +14535,7 @@
       <c r="W523" s="4"/>
       <c r="X523" s="4"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -14473,7 +14561,7 @@
       <c r="W524" s="4"/>
       <c r="X524" s="4"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -14499,7 +14587,7 @@
       <c r="W525" s="4"/>
       <c r="X525" s="4"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -14525,7 +14613,7 @@
       <c r="W526" s="4"/>
       <c r="X526" s="4"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -14551,7 +14639,7 @@
       <c r="W527" s="4"/>
       <c r="X527" s="4"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -14577,7 +14665,7 @@
       <c r="W528" s="4"/>
       <c r="X528" s="4"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -14603,7 +14691,7 @@
       <c r="W529" s="4"/>
       <c r="X529" s="4"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -14629,7 +14717,7 @@
       <c r="W530" s="4"/>
       <c r="X530" s="4"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -14655,7 +14743,7 @@
       <c r="W531" s="4"/>
       <c r="X531" s="4"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -14681,7 +14769,7 @@
       <c r="W532" s="4"/>
       <c r="X532" s="4"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -14707,7 +14795,7 @@
       <c r="W533" s="4"/>
       <c r="X533" s="4"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -14733,7 +14821,7 @@
       <c r="W534" s="4"/>
       <c r="X534" s="4"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -14759,7 +14847,7 @@
       <c r="W535" s="4"/>
       <c r="X535" s="4"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -14785,7 +14873,7 @@
       <c r="W536" s="4"/>
       <c r="X536" s="4"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -14811,7 +14899,7 @@
       <c r="W537" s="4"/>
       <c r="X537" s="4"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -14837,7 +14925,7 @@
       <c r="W538" s="4"/>
       <c r="X538" s="4"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -14863,7 +14951,7 @@
       <c r="W539" s="4"/>
       <c r="X539" s="4"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -14889,7 +14977,7 @@
       <c r="W540" s="4"/>
       <c r="X540" s="4"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -14915,7 +15003,7 @@
       <c r="W541" s="4"/>
       <c r="X541" s="4"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -14941,7 +15029,7 @@
       <c r="W542" s="4"/>
       <c r="X542" s="4"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -14967,7 +15055,7 @@
       <c r="W543" s="4"/>
       <c r="X543" s="4"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -14993,7 +15081,7 @@
       <c r="W544" s="4"/>
       <c r="X544" s="4"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -15019,7 +15107,7 @@
       <c r="W545" s="4"/>
       <c r="X545" s="4"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -15045,7 +15133,7 @@
       <c r="W546" s="4"/>
       <c r="X546" s="4"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -15071,7 +15159,7 @@
       <c r="W547" s="4"/>
       <c r="X547" s="4"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -15097,7 +15185,7 @@
       <c r="W548" s="4"/>
       <c r="X548" s="4"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -15123,7 +15211,7 @@
       <c r="W549" s="4"/>
       <c r="X549" s="4"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -15149,7 +15237,7 @@
       <c r="W550" s="4"/>
       <c r="X550" s="4"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -15175,7 +15263,7 @@
       <c r="W551" s="4"/>
       <c r="X551" s="4"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -15201,7 +15289,7 @@
       <c r="W552" s="4"/>
       <c r="X552" s="4"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -15227,7 +15315,7 @@
       <c r="W553" s="4"/>
       <c r="X553" s="4"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -15253,7 +15341,7 @@
       <c r="W554" s="4"/>
       <c r="X554" s="4"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -15279,7 +15367,7 @@
       <c r="W555" s="4"/>
       <c r="X555" s="4"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -15305,7 +15393,7 @@
       <c r="W556" s="4"/>
       <c r="X556" s="4"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -15331,7 +15419,7 @@
       <c r="W557" s="4"/>
       <c r="X557" s="4"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -15357,7 +15445,7 @@
       <c r="W558" s="4"/>
       <c r="X558" s="4"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -15383,7 +15471,7 @@
       <c r="W559" s="4"/>
       <c r="X559" s="4"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -15409,7 +15497,7 @@
       <c r="W560" s="4"/>
       <c r="X560" s="4"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -15435,7 +15523,7 @@
       <c r="W561" s="4"/>
       <c r="X561" s="4"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -15461,7 +15549,7 @@
       <c r="W562" s="4"/>
       <c r="X562" s="4"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -15487,7 +15575,7 @@
       <c r="W563" s="4"/>
       <c r="X563" s="4"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -15513,7 +15601,7 @@
       <c r="W564" s="4"/>
       <c r="X564" s="4"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -15539,7 +15627,7 @@
       <c r="W565" s="4"/>
       <c r="X565" s="4"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -15565,7 +15653,7 @@
       <c r="W566" s="4"/>
       <c r="X566" s="4"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -15591,7 +15679,7 @@
       <c r="W567" s="4"/>
       <c r="X567" s="4"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -15617,7 +15705,7 @@
       <c r="W568" s="4"/>
       <c r="X568" s="4"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -15643,7 +15731,7 @@
       <c r="W569" s="4"/>
       <c r="X569" s="4"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -15669,7 +15757,7 @@
       <c r="W570" s="4"/>
       <c r="X570" s="4"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -15695,7 +15783,7 @@
       <c r="W571" s="4"/>
       <c r="X571" s="4"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -15721,7 +15809,7 @@
       <c r="W572" s="4"/>
       <c r="X572" s="4"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -15747,7 +15835,7 @@
       <c r="W573" s="4"/>
       <c r="X573" s="4"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -15773,873 +15861,873 @@
       <c r="W574" s="4"/>
       <c r="X574" s="4"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
-      <c r="C575" s="73"/>
-      <c r="D575" s="73"/>
-      <c r="E575" s="74"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
+      <c r="C575" s="67"/>
+      <c r="D575" s="67"/>
+      <c r="E575" s="68"/>
+    </row>
+    <row r="576" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
-      <c r="C576" s="73"/>
-      <c r="D576" s="73"/>
-      <c r="E576" s="74"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
+      <c r="C576" s="67"/>
+      <c r="D576" s="67"/>
+      <c r="E576" s="68"/>
+    </row>
+    <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
-      <c r="C577" s="73"/>
-      <c r="D577" s="73"/>
-      <c r="E577" s="74"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
+      <c r="C577" s="67"/>
+      <c r="D577" s="67"/>
+      <c r="E577" s="68"/>
+    </row>
+    <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
-      <c r="C578" s="73"/>
-      <c r="D578" s="73"/>
-      <c r="E578" s="74"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
+      <c r="C578" s="67"/>
+      <c r="D578" s="67"/>
+      <c r="E578" s="68"/>
+    </row>
+    <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
-      <c r="C579" s="73"/>
-      <c r="D579" s="73"/>
-      <c r="E579" s="74"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
+      <c r="C579" s="67"/>
+      <c r="D579" s="67"/>
+      <c r="E579" s="68"/>
+    </row>
+    <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
-      <c r="C580" s="73"/>
-      <c r="D580" s="73"/>
-      <c r="E580" s="74"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
+      <c r="C580" s="67"/>
+      <c r="D580" s="67"/>
+      <c r="E580" s="68"/>
+    </row>
+    <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
-      <c r="C581" s="73"/>
-      <c r="D581" s="73"/>
-      <c r="E581" s="74"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
+      <c r="C581" s="67"/>
+      <c r="D581" s="67"/>
+      <c r="E581" s="68"/>
+    </row>
+    <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
-      <c r="C582" s="73"/>
-      <c r="D582" s="73"/>
-      <c r="E582" s="74"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
+      <c r="C582" s="67"/>
+      <c r="D582" s="67"/>
+      <c r="E582" s="68"/>
+    </row>
+    <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
-      <c r="C583" s="73"/>
-      <c r="D583" s="73"/>
-      <c r="E583" s="74"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
+      <c r="C583" s="67"/>
+      <c r="D583" s="67"/>
+      <c r="E583" s="68"/>
+    </row>
+    <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
-      <c r="C584" s="73"/>
-      <c r="D584" s="73"/>
-      <c r="E584" s="74"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
+      <c r="C584" s="67"/>
+      <c r="D584" s="67"/>
+      <c r="E584" s="68"/>
+    </row>
+    <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
-      <c r="C585" s="73"/>
-      <c r="D585" s="73"/>
-      <c r="E585" s="74"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
+      <c r="C585" s="67"/>
+      <c r="D585" s="67"/>
+      <c r="E585" s="68"/>
+    </row>
+    <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
-      <c r="C586" s="73"/>
-      <c r="D586" s="73"/>
-      <c r="E586" s="74"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
+      <c r="C586" s="67"/>
+      <c r="D586" s="67"/>
+      <c r="E586" s="68"/>
+    </row>
+    <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
-      <c r="C587" s="73"/>
-      <c r="D587" s="73"/>
-      <c r="E587" s="74"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
+      <c r="C587" s="67"/>
+      <c r="D587" s="67"/>
+      <c r="E587" s="68"/>
+    </row>
+    <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
-      <c r="C588" s="73"/>
-      <c r="D588" s="73"/>
-      <c r="E588" s="74"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
+      <c r="C588" s="67"/>
+      <c r="D588" s="67"/>
+      <c r="E588" s="68"/>
+    </row>
+    <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
-      <c r="C589" s="73"/>
-      <c r="D589" s="73"/>
-      <c r="E589" s="74"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
+      <c r="C589" s="67"/>
+      <c r="D589" s="67"/>
+      <c r="E589" s="68"/>
+    </row>
+    <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
-      <c r="C590" s="73"/>
-      <c r="D590" s="73"/>
-      <c r="E590" s="74"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
+      <c r="C590" s="67"/>
+      <c r="D590" s="67"/>
+      <c r="E590" s="68"/>
+    </row>
+    <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
-      <c r="C591" s="73"/>
-      <c r="D591" s="73"/>
-      <c r="E591" s="74"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
+      <c r="C591" s="67"/>
+      <c r="D591" s="67"/>
+      <c r="E591" s="68"/>
+    </row>
+    <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
-      <c r="C592" s="73"/>
-      <c r="D592" s="73"/>
-      <c r="E592" s="74"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
+      <c r="C592" s="67"/>
+      <c r="D592" s="67"/>
+      <c r="E592" s="68"/>
+    </row>
+    <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
-      <c r="C593" s="73"/>
-      <c r="D593" s="73"/>
-      <c r="E593" s="74"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
+      <c r="C593" s="67"/>
+      <c r="D593" s="67"/>
+      <c r="E593" s="68"/>
+    </row>
+    <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
-      <c r="C594" s="73"/>
-      <c r="D594" s="73"/>
-      <c r="E594" s="74"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
+      <c r="C594" s="67"/>
+      <c r="D594" s="67"/>
+      <c r="E594" s="68"/>
+    </row>
+    <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
-      <c r="C595" s="73"/>
-      <c r="D595" s="73"/>
-      <c r="E595" s="74"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
+      <c r="C595" s="67"/>
+      <c r="D595" s="67"/>
+      <c r="E595" s="68"/>
+    </row>
+    <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
-      <c r="C596" s="73"/>
-      <c r="D596" s="73"/>
-      <c r="E596" s="74"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
+      <c r="C596" s="67"/>
+      <c r="D596" s="67"/>
+      <c r="E596" s="68"/>
+    </row>
+    <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
-      <c r="C597" s="73"/>
-      <c r="D597" s="73"/>
-      <c r="E597" s="74"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
+      <c r="C597" s="67"/>
+      <c r="D597" s="67"/>
+      <c r="E597" s="68"/>
+    </row>
+    <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
-      <c r="C598" s="73"/>
-      <c r="D598" s="73"/>
-      <c r="E598" s="74"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
+      <c r="C598" s="67"/>
+      <c r="D598" s="67"/>
+      <c r="E598" s="68"/>
+    </row>
+    <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
-      <c r="C599" s="73"/>
-      <c r="D599" s="73"/>
-      <c r="E599" s="74"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
+      <c r="C599" s="67"/>
+      <c r="D599" s="67"/>
+      <c r="E599" s="68"/>
+    </row>
+    <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
-      <c r="C600" s="73"/>
-      <c r="D600" s="73"/>
-      <c r="E600" s="74"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
+      <c r="C600" s="67"/>
+      <c r="D600" s="67"/>
+      <c r="E600" s="68"/>
+    </row>
+    <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
-      <c r="C601" s="73"/>
-      <c r="D601" s="73"/>
-      <c r="E601" s="74"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
+      <c r="C601" s="67"/>
+      <c r="D601" s="67"/>
+      <c r="E601" s="68"/>
+    </row>
+    <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
-      <c r="C602" s="73"/>
-      <c r="D602" s="73"/>
-      <c r="E602" s="74"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
+      <c r="C602" s="67"/>
+      <c r="D602" s="67"/>
+      <c r="E602" s="68"/>
+    </row>
+    <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
-      <c r="C603" s="73"/>
-      <c r="D603" s="73"/>
-      <c r="E603" s="74"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
+      <c r="C603" s="67"/>
+      <c r="D603" s="67"/>
+      <c r="E603" s="68"/>
+    </row>
+    <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
-      <c r="C604" s="73"/>
-      <c r="D604" s="73"/>
-      <c r="E604" s="74"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
+      <c r="C604" s="67"/>
+      <c r="D604" s="67"/>
+      <c r="E604" s="68"/>
+    </row>
+    <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
-      <c r="C605" s="73"/>
-      <c r="D605" s="73"/>
-      <c r="E605" s="74"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
+      <c r="C605" s="67"/>
+      <c r="D605" s="67"/>
+      <c r="E605" s="68"/>
+    </row>
+    <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
-      <c r="C606" s="73"/>
-      <c r="D606" s="73"/>
-      <c r="E606" s="74"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
+      <c r="C606" s="67"/>
+      <c r="D606" s="67"/>
+      <c r="E606" s="68"/>
+    </row>
+    <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
-      <c r="C607" s="73"/>
-      <c r="D607" s="73"/>
-      <c r="E607" s="74"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
+      <c r="C607" s="67"/>
+      <c r="D607" s="67"/>
+      <c r="E607" s="68"/>
+    </row>
+    <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
-      <c r="C608" s="73"/>
-      <c r="D608" s="73"/>
-      <c r="E608" s="74"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
+      <c r="C608" s="67"/>
+      <c r="D608" s="67"/>
+      <c r="E608" s="68"/>
+    </row>
+    <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
-      <c r="C609" s="73"/>
-      <c r="D609" s="73"/>
-      <c r="E609" s="74"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
+      <c r="C609" s="67"/>
+      <c r="D609" s="67"/>
+      <c r="E609" s="68"/>
+    </row>
+    <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
-      <c r="C610" s="73"/>
-      <c r="D610" s="73"/>
-      <c r="E610" s="74"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
+      <c r="C610" s="67"/>
+      <c r="D610" s="67"/>
+      <c r="E610" s="68"/>
+    </row>
+    <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
-      <c r="C611" s="73"/>
-      <c r="D611" s="73"/>
-      <c r="E611" s="74"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
+      <c r="C611" s="67"/>
+      <c r="D611" s="67"/>
+      <c r="E611" s="68"/>
+    </row>
+    <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
-      <c r="C612" s="73"/>
-      <c r="D612" s="73"/>
-      <c r="E612" s="74"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
+      <c r="C612" s="67"/>
+      <c r="D612" s="67"/>
+      <c r="E612" s="68"/>
+    </row>
+    <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
-      <c r="C613" s="73"/>
-      <c r="D613" s="73"/>
-      <c r="E613" s="74"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
+      <c r="C613" s="67"/>
+      <c r="D613" s="67"/>
+      <c r="E613" s="68"/>
+    </row>
+    <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
-      <c r="C614" s="73"/>
-      <c r="D614" s="73"/>
-      <c r="E614" s="74"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
+      <c r="C614" s="67"/>
+      <c r="D614" s="67"/>
+      <c r="E614" s="68"/>
+    </row>
+    <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
-      <c r="C615" s="73"/>
-      <c r="D615" s="73"/>
-      <c r="E615" s="74"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
+      <c r="C615" s="67"/>
+      <c r="D615" s="67"/>
+      <c r="E615" s="68"/>
+    </row>
+    <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
-      <c r="C616" s="73"/>
-      <c r="D616" s="73"/>
-      <c r="E616" s="74"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
+      <c r="C616" s="67"/>
+      <c r="D616" s="67"/>
+      <c r="E616" s="68"/>
+    </row>
+    <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
-      <c r="C617" s="73"/>
-      <c r="D617" s="73"/>
-      <c r="E617" s="74"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
+      <c r="C617" s="67"/>
+      <c r="D617" s="67"/>
+      <c r="E617" s="68"/>
+    </row>
+    <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
-      <c r="C618" s="73"/>
-      <c r="D618" s="73"/>
-      <c r="E618" s="74"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
+      <c r="C618" s="67"/>
+      <c r="D618" s="67"/>
+      <c r="E618" s="68"/>
+    </row>
+    <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
-      <c r="C619" s="73"/>
-      <c r="D619" s="73"/>
-      <c r="E619" s="74"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
+      <c r="C619" s="67"/>
+      <c r="D619" s="67"/>
+      <c r="E619" s="68"/>
+    </row>
+    <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
-      <c r="C620" s="73"/>
-      <c r="D620" s="73"/>
-      <c r="E620" s="74"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
+      <c r="C620" s="67"/>
+      <c r="D620" s="67"/>
+      <c r="E620" s="68"/>
+    </row>
+    <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
-      <c r="C621" s="73"/>
-      <c r="D621" s="73"/>
-      <c r="E621" s="74"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
+      <c r="C621" s="67"/>
+      <c r="D621" s="67"/>
+      <c r="E621" s="68"/>
+    </row>
+    <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
-      <c r="C622" s="73"/>
-      <c r="D622" s="73"/>
-      <c r="E622" s="74"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
+      <c r="C622" s="67"/>
+      <c r="D622" s="67"/>
+      <c r="E622" s="68"/>
+    </row>
+    <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
-      <c r="C623" s="73"/>
-      <c r="D623" s="73"/>
-      <c r="E623" s="74"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
+      <c r="C623" s="67"/>
+      <c r="D623" s="67"/>
+      <c r="E623" s="68"/>
+    </row>
+    <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
-      <c r="C624" s="73"/>
-      <c r="D624" s="73"/>
-      <c r="E624" s="74"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
+      <c r="C624" s="67"/>
+      <c r="D624" s="67"/>
+      <c r="E624" s="68"/>
+    </row>
+    <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
-      <c r="C625" s="73"/>
-      <c r="D625" s="73"/>
-      <c r="E625" s="74"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
+      <c r="C625" s="67"/>
+      <c r="D625" s="67"/>
+      <c r="E625" s="68"/>
+    </row>
+    <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
-      <c r="C626" s="73"/>
-      <c r="D626" s="73"/>
-      <c r="E626" s="74"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
+      <c r="C626" s="67"/>
+      <c r="D626" s="67"/>
+      <c r="E626" s="68"/>
+    </row>
+    <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
-      <c r="C627" s="73"/>
-      <c r="D627" s="73"/>
-      <c r="E627" s="74"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
+      <c r="C627" s="67"/>
+      <c r="D627" s="67"/>
+      <c r="E627" s="68"/>
+    </row>
+    <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
-      <c r="C628" s="73"/>
-      <c r="D628" s="73"/>
-      <c r="E628" s="74"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
+      <c r="C628" s="67"/>
+      <c r="D628" s="67"/>
+      <c r="E628" s="68"/>
+    </row>
+    <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
-      <c r="C629" s="73"/>
-      <c r="D629" s="73"/>
-      <c r="E629" s="74"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
+      <c r="C629" s="67"/>
+      <c r="D629" s="67"/>
+      <c r="E629" s="68"/>
+    </row>
+    <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
-      <c r="C630" s="73"/>
-      <c r="D630" s="73"/>
-      <c r="E630" s="74"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
+      <c r="C630" s="67"/>
+      <c r="D630" s="67"/>
+      <c r="E630" s="68"/>
+    </row>
+    <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
-      <c r="C631" s="73"/>
-      <c r="D631" s="73"/>
-      <c r="E631" s="74"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
+      <c r="C631" s="67"/>
+      <c r="D631" s="67"/>
+      <c r="E631" s="68"/>
+    </row>
+    <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
-      <c r="C632" s="73"/>
-      <c r="D632" s="73"/>
-      <c r="E632" s="74"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
+      <c r="C632" s="67"/>
+      <c r="D632" s="67"/>
+      <c r="E632" s="68"/>
+    </row>
+    <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
-      <c r="C633" s="73"/>
-      <c r="D633" s="73"/>
-      <c r="E633" s="74"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
+      <c r="C633" s="67"/>
+      <c r="D633" s="67"/>
+      <c r="E633" s="68"/>
+    </row>
+    <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
-      <c r="C634" s="73"/>
-      <c r="D634" s="73"/>
-      <c r="E634" s="74"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
+      <c r="C634" s="67"/>
+      <c r="D634" s="67"/>
+      <c r="E634" s="68"/>
+    </row>
+    <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
-      <c r="C635" s="73"/>
-      <c r="D635" s="73"/>
-      <c r="E635" s="74"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
+      <c r="C635" s="67"/>
+      <c r="D635" s="67"/>
+      <c r="E635" s="68"/>
+    </row>
+    <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
-      <c r="C636" s="73"/>
-      <c r="D636" s="73"/>
-      <c r="E636" s="74"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
+      <c r="C636" s="67"/>
+      <c r="D636" s="67"/>
+      <c r="E636" s="68"/>
+    </row>
+    <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
-      <c r="C637" s="73"/>
-      <c r="D637" s="73"/>
-      <c r="E637" s="74"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
+      <c r="C637" s="67"/>
+      <c r="D637" s="67"/>
+      <c r="E637" s="68"/>
+    </row>
+    <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
-      <c r="C638" s="73"/>
-      <c r="D638" s="73"/>
-      <c r="E638" s="74"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
+      <c r="C638" s="67"/>
+      <c r="D638" s="67"/>
+      <c r="E638" s="68"/>
+    </row>
+    <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
-      <c r="C639" s="73"/>
-      <c r="D639" s="73"/>
-      <c r="E639" s="74"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
+      <c r="C639" s="67"/>
+      <c r="D639" s="67"/>
+      <c r="E639" s="68"/>
+    </row>
+    <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
-      <c r="C640" s="73"/>
-      <c r="D640" s="73"/>
-      <c r="E640" s="74"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
+      <c r="C640" s="67"/>
+      <c r="D640" s="67"/>
+      <c r="E640" s="68"/>
+    </row>
+    <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
-      <c r="C641" s="73"/>
-      <c r="D641" s="73"/>
-      <c r="E641" s="74"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
+      <c r="C641" s="67"/>
+      <c r="D641" s="67"/>
+      <c r="E641" s="68"/>
+    </row>
+    <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
-      <c r="C642" s="73"/>
-      <c r="D642" s="73"/>
-      <c r="E642" s="74"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
+      <c r="C642" s="67"/>
+      <c r="D642" s="67"/>
+      <c r="E642" s="68"/>
+    </row>
+    <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
-      <c r="C643" s="73"/>
-      <c r="D643" s="73"/>
-      <c r="E643" s="74"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
+      <c r="C643" s="67"/>
+      <c r="D643" s="67"/>
+      <c r="E643" s="68"/>
+    </row>
+    <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
-      <c r="C644" s="73"/>
-      <c r="D644" s="73"/>
-      <c r="E644" s="74"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
+      <c r="C644" s="67"/>
+      <c r="D644" s="67"/>
+      <c r="E644" s="68"/>
+    </row>
+    <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
-      <c r="C645" s="73"/>
-      <c r="D645" s="73"/>
-      <c r="E645" s="74"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
+      <c r="C645" s="67"/>
+      <c r="D645" s="67"/>
+      <c r="E645" s="68"/>
+    </row>
+    <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
-      <c r="C646" s="73"/>
-      <c r="D646" s="73"/>
-      <c r="E646" s="74"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
+      <c r="C646" s="67"/>
+      <c r="D646" s="67"/>
+      <c r="E646" s="68"/>
+    </row>
+    <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
-      <c r="C647" s="73"/>
-      <c r="D647" s="73"/>
-      <c r="E647" s="74"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
+      <c r="C647" s="67"/>
+      <c r="D647" s="67"/>
+      <c r="E647" s="68"/>
+    </row>
+    <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
-      <c r="C648" s="73"/>
-      <c r="D648" s="73"/>
-      <c r="E648" s="74"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
+      <c r="C648" s="67"/>
+      <c r="D648" s="67"/>
+      <c r="E648" s="68"/>
+    </row>
+    <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
-      <c r="C649" s="73"/>
-      <c r="D649" s="73"/>
-      <c r="E649" s="74"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
+      <c r="C649" s="67"/>
+      <c r="D649" s="67"/>
+      <c r="E649" s="68"/>
+    </row>
+    <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
-      <c r="C650" s="73"/>
-      <c r="D650" s="73"/>
-      <c r="E650" s="74"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
+      <c r="C650" s="67"/>
+      <c r="D650" s="67"/>
+      <c r="E650" s="68"/>
+    </row>
+    <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
-      <c r="C651" s="73"/>
-      <c r="D651" s="73"/>
-      <c r="E651" s="74"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
+      <c r="C651" s="67"/>
+      <c r="D651" s="67"/>
+      <c r="E651" s="68"/>
+    </row>
+    <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
-      <c r="C652" s="73"/>
-      <c r="D652" s="73"/>
-      <c r="E652" s="74"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
+      <c r="C652" s="67"/>
+      <c r="D652" s="67"/>
+      <c r="E652" s="68"/>
+    </row>
+    <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
-      <c r="C653" s="73"/>
-      <c r="D653" s="73"/>
-      <c r="E653" s="74"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
+      <c r="C653" s="67"/>
+      <c r="D653" s="67"/>
+      <c r="E653" s="68"/>
+    </row>
+    <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
-      <c r="C654" s="73"/>
-      <c r="D654" s="73"/>
-      <c r="E654" s="74"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
+      <c r="C654" s="67"/>
+      <c r="D654" s="67"/>
+      <c r="E654" s="68"/>
+    </row>
+    <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
-      <c r="C655" s="73"/>
-      <c r="D655" s="73"/>
-      <c r="E655" s="74"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
+      <c r="C655" s="67"/>
+      <c r="D655" s="67"/>
+      <c r="E655" s="68"/>
+    </row>
+    <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
-      <c r="C656" s="73"/>
-      <c r="D656" s="73"/>
-      <c r="E656" s="74"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
+      <c r="C656" s="67"/>
+      <c r="D656" s="67"/>
+      <c r="E656" s="68"/>
+    </row>
+    <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
-      <c r="C657" s="73"/>
-      <c r="D657" s="73"/>
-      <c r="E657" s="74"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
+      <c r="C657" s="67"/>
+      <c r="D657" s="67"/>
+      <c r="E657" s="68"/>
+    </row>
+    <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
-      <c r="C658" s="73"/>
-      <c r="D658" s="73"/>
-      <c r="E658" s="74"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
+      <c r="C658" s="67"/>
+      <c r="D658" s="67"/>
+      <c r="E658" s="68"/>
+    </row>
+    <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
-      <c r="C659" s="73"/>
-      <c r="D659" s="73"/>
-      <c r="E659" s="74"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
+      <c r="C659" s="67"/>
+      <c r="D659" s="67"/>
+      <c r="E659" s="68"/>
+    </row>
+    <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
-      <c r="C660" s="73"/>
-      <c r="D660" s="73"/>
-      <c r="E660" s="74"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
+      <c r="C660" s="67"/>
+      <c r="D660" s="67"/>
+      <c r="E660" s="68"/>
+    </row>
+    <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
-      <c r="C661" s="73"/>
-      <c r="D661" s="73"/>
-      <c r="E661" s="74"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
+      <c r="C661" s="67"/>
+      <c r="D661" s="67"/>
+      <c r="E661" s="68"/>
+    </row>
+    <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
-      <c r="C662" s="73"/>
-      <c r="D662" s="73"/>
-      <c r="E662" s="74"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
+      <c r="C662" s="67"/>
+      <c r="D662" s="67"/>
+      <c r="E662" s="68"/>
+    </row>
+    <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
-      <c r="C663" s="73"/>
-      <c r="D663" s="73"/>
-      <c r="E663" s="74"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
+      <c r="C663" s="67"/>
+      <c r="D663" s="67"/>
+      <c r="E663" s="68"/>
+    </row>
+    <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
-      <c r="C664" s="73"/>
-      <c r="D664" s="73"/>
-      <c r="E664" s="74"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
+      <c r="C664" s="67"/>
+      <c r="D664" s="67"/>
+      <c r="E664" s="68"/>
+    </row>
+    <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
-      <c r="C665" s="73"/>
-      <c r="D665" s="73"/>
-      <c r="E665" s="74"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
+      <c r="C665" s="67"/>
+      <c r="D665" s="67"/>
+      <c r="E665" s="68"/>
+    </row>
+    <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
-      <c r="C666" s="73"/>
-      <c r="D666" s="73"/>
-      <c r="E666" s="74"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
+      <c r="C666" s="67"/>
+      <c r="D666" s="67"/>
+      <c r="E666" s="68"/>
+    </row>
+    <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
-      <c r="C667" s="73"/>
-      <c r="D667" s="73"/>
-      <c r="E667" s="74"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
+      <c r="C667" s="67"/>
+      <c r="D667" s="67"/>
+      <c r="E667" s="68"/>
+    </row>
+    <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
-      <c r="C668" s="73"/>
-      <c r="D668" s="73"/>
-      <c r="E668" s="74"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
+      <c r="C668" s="67"/>
+      <c r="D668" s="67"/>
+      <c r="E668" s="68"/>
+    </row>
+    <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
-      <c r="C669" s="73"/>
-      <c r="D669" s="73"/>
-      <c r="E669" s="74"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
+      <c r="C669" s="67"/>
+      <c r="D669" s="67"/>
+      <c r="E669" s="68"/>
+    </row>
+    <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
-      <c r="C670" s="73"/>
-      <c r="D670" s="73"/>
-      <c r="E670" s="74"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
+      <c r="C670" s="67"/>
+      <c r="D670" s="67"/>
+      <c r="E670" s="68"/>
+    </row>
+    <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
-      <c r="C671" s="73"/>
-      <c r="D671" s="73"/>
-      <c r="E671" s="74"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
+      <c r="C671" s="67"/>
+      <c r="D671" s="67"/>
+      <c r="E671" s="68"/>
+    </row>
+    <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
-      <c r="C672" s="73"/>
-      <c r="D672" s="73"/>
-      <c r="E672" s="74"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
+      <c r="C672" s="67"/>
+      <c r="D672" s="67"/>
+      <c r="E672" s="68"/>
+    </row>
+    <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
-      <c r="C673" s="73"/>
-      <c r="D673" s="73"/>
-      <c r="E673" s="74"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
+      <c r="C673" s="67"/>
+      <c r="D673" s="67"/>
+      <c r="E673" s="68"/>
+    </row>
+    <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
-      <c r="C674" s="73"/>
-      <c r="D674" s="73"/>
-      <c r="E674" s="74"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
+      <c r="C674" s="67"/>
+      <c r="D674" s="67"/>
+      <c r="E674" s="68"/>
+    </row>
+    <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
-      <c r="C675" s="73"/>
-      <c r="D675" s="73"/>
-      <c r="E675" s="74"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
+      <c r="C675" s="67"/>
+      <c r="D675" s="67"/>
+      <c r="E675" s="68"/>
+    </row>
+    <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
-      <c r="C676" s="73"/>
-      <c r="D676" s="73"/>
-      <c r="E676" s="74"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
+      <c r="C676" s="67"/>
+      <c r="D676" s="67"/>
+      <c r="E676" s="68"/>
+    </row>
+    <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
-      <c r="C677" s="73"/>
-      <c r="D677" s="73"/>
-      <c r="E677" s="74"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
+      <c r="C677" s="67"/>
+      <c r="D677" s="67"/>
+      <c r="E677" s="68"/>
+    </row>
+    <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
-      <c r="C678" s="73"/>
-      <c r="D678" s="73"/>
-      <c r="E678" s="74"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
+      <c r="C678" s="67"/>
+      <c r="D678" s="67"/>
+      <c r="E678" s="68"/>
+    </row>
+    <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
-      <c r="C679" s="73"/>
-      <c r="D679" s="73"/>
-      <c r="E679" s="74"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
+      <c r="C679" s="67"/>
+      <c r="D679" s="67"/>
+      <c r="E679" s="68"/>
+    </row>
+    <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
-      <c r="C680" s="73"/>
-      <c r="D680" s="73"/>
-      <c r="E680" s="74"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
+      <c r="C680" s="67"/>
+      <c r="D680" s="67"/>
+      <c r="E680" s="68"/>
+    </row>
+    <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
-      <c r="C681" s="73"/>
-      <c r="D681" s="73"/>
-      <c r="E681" s="74"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
+      <c r="C681" s="67"/>
+      <c r="D681" s="67"/>
+      <c r="E681" s="68"/>
+    </row>
+    <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
-      <c r="C682" s="73"/>
-      <c r="D682" s="73"/>
-      <c r="E682" s="74"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
+      <c r="C682" s="67"/>
+      <c r="D682" s="67"/>
+      <c r="E682" s="68"/>
+    </row>
+    <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
-      <c r="C683" s="73"/>
-      <c r="D683" s="73"/>
-      <c r="E683" s="74"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
+      <c r="C683" s="67"/>
+      <c r="D683" s="67"/>
+      <c r="E683" s="68"/>
+    </row>
+    <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
-      <c r="C684" s="73"/>
-      <c r="D684" s="73"/>
-      <c r="E684" s="74"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
+      <c r="C684" s="67"/>
+      <c r="D684" s="67"/>
+      <c r="E684" s="68"/>
+    </row>
+    <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
-      <c r="C685" s="73"/>
-      <c r="D685" s="73"/>
-      <c r="E685" s="74"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
+      <c r="C685" s="67"/>
+      <c r="D685" s="67"/>
+      <c r="E685" s="68"/>
+    </row>
+    <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
-      <c r="C686" s="73"/>
-      <c r="D686" s="73"/>
-      <c r="E686" s="74"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
+      <c r="C686" s="67"/>
+      <c r="D686" s="67"/>
+      <c r="E686" s="68"/>
+    </row>
+    <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
-      <c r="C687" s="73"/>
-      <c r="D687" s="73"/>
-      <c r="E687" s="74"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
+      <c r="C687" s="67"/>
+      <c r="D687" s="67"/>
+      <c r="E687" s="68"/>
+    </row>
+    <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
-      <c r="C688" s="73"/>
-      <c r="D688" s="73"/>
-      <c r="E688" s="74"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
+      <c r="C688" s="67"/>
+      <c r="D688" s="67"/>
+      <c r="E688" s="68"/>
+    </row>
+    <row r="689" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
-      <c r="C689" s="73"/>
-      <c r="D689" s="73"/>
-      <c r="E689" s="74"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
+      <c r="C689" s="67"/>
+      <c r="D689" s="67"/>
+      <c r="E689" s="68"/>
+    </row>
+    <row r="690" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
-      <c r="C690" s="73"/>
-      <c r="D690" s="73"/>
-      <c r="E690" s="74"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
+      <c r="C690" s="67"/>
+      <c r="D690" s="67"/>
+      <c r="E690" s="68"/>
+    </row>
+    <row r="691" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
-      <c r="C691" s="73"/>
-      <c r="D691" s="73"/>
-      <c r="E691" s="74"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
+      <c r="C691" s="67"/>
+      <c r="D691" s="67"/>
+      <c r="E691" s="68"/>
+    </row>
+    <row r="692" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
-      <c r="C692" s="73"/>
-      <c r="D692" s="73"/>
-      <c r="E692" s="74"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
+      <c r="C692" s="67"/>
+      <c r="D692" s="67"/>
+      <c r="E692" s="68"/>
+    </row>
+    <row r="693" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
-      <c r="C693" s="73"/>
-      <c r="D693" s="73"/>
-      <c r="E693" s="74"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
+      <c r="C693" s="67"/>
+      <c r="D693" s="67"/>
+      <c r="E693" s="68"/>
+    </row>
+    <row r="694" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q694" s="4"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q695" s="4"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q696" s="4"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q697" s="4"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q698" s="4"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q699" s="4"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q700" s="4"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q701" s="4"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q702" s="4"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q703" s="4"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q704" s="4"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q705" s="4"/>
     </row>
   </sheetData>
@@ -16649,8 +16737,7 @@
     <mergeCell ref="A23:A27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="3" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Responsibility_Matrix.xlsx
+++ b/Responsibility_Matrix.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trey\git\SmartHome-project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CB344C-6F8B-43D3-9BDF-F1663A2F5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>Area</t>
   </si>
@@ -133,6 +124,12 @@
     <t>Desgin charts and graphs to visualize changes in home data</t>
   </si>
   <si>
+    <t>OTHER:</t>
+  </si>
+  <si>
+    <t>Develop video presentation</t>
+  </si>
+  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -157,60 +154,68 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="13">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,7 +223,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -233,22 +238,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -263,10 +258,8 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -274,7 +267,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -286,8 +278,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -302,7 +292,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -315,7 +304,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -327,8 +315,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -343,7 +329,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -352,20 +337,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -380,7 +359,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -389,9 +367,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -406,7 +381,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -421,7 +395,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -433,8 +406,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -446,8 +417,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -456,42 +425,30 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -506,64 +463,25 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -572,14 +490,12 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -588,7 +504,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -599,7 +514,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -608,7 +522,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -619,235 +532,231 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="73">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="45"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="24" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="25" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="27" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="28" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="29" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="30" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1037,29 +946,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X705"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="62.75" customWidth="1"/>
-    <col min="3" max="15" width="4.625" customWidth="1"/>
-    <col min="16" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="24" width="7.625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="62.75"/>
+    <col customWidth="1" min="3" max="15" width="4.63"/>
+    <col customWidth="1" min="16" max="16" width="15.75"/>
+    <col customWidth="1" min="17" max="24" width="7.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1078,7 +985,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1115,864 +1022,864 @@
       </c>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="15" t="s">
+    <row r="3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="20" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="21" t="s">
+    <row r="4">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="24" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="25" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="26" t="s">
+    <row r="5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="27" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="25" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="28" t="s">
+    <row r="6">
+      <c r="A6" s="22"/>
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="29" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="25" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="27" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="26" t="s">
+    <row r="7">
+      <c r="A7" s="22"/>
+      <c r="B7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="25" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="30" t="s">
+    <row r="8">
+      <c r="A8" s="22"/>
+      <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="34" t="s">
+    <row r="9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="36" t="s">
-        <v>39</v>
+      <c r="C9" s="37"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="38" t="s">
+        <v>11</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="20" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="37" t="s">
+    <row r="10">
+      <c r="A10" s="22"/>
+      <c r="B10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="22"/>
+      <c r="B11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="39" t="s">
-        <v>22</v>
+      <c r="H11" s="29" t="s">
+        <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="22"/>
+      <c r="B12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="29" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="29" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H12" s="25"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="22"/>
+      <c r="B13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="22"/>
+      <c r="B14" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="37" t="s">
-        <v>23</v>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="22"/>
+      <c r="B16" s="28" t="s">
+        <v>27</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="29" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="22"/>
+      <c r="B17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="42"/>
+      <c r="B18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="29" t="s">
+      <c r="H24" s="25"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="26" t="s">
-        <v>24</v>
+      <c r="F26" s="25"/>
+      <c r="G26" s="31" t="s">
+        <v>20</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="29" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="53"/>
+      <c r="B29" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="29" t="s">
+      <c r="E29" s="55"/>
+      <c r="F29" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>11</v>
+      <c r="B31" s="63" t="s">
+        <v>40</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="37" t="s">
-        <v>25</v>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="62" t="s">
+        <v>41</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>11</v>
+      <c r="B32" s="63" t="s">
+        <v>42</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="40" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="26" t="s">
-        <v>26</v>
+      <c r="B33" s="63" t="s">
+        <v>43</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>10</v>
+      <c r="B34" s="63" t="s">
+        <v>44</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="40" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="42" t="s">
-        <v>28</v>
+      <c r="B35" s="67" t="s">
+        <v>45</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="69"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="72"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1990,7 +1897,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
@@ -2009,7 +1916,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
@@ -2028,7 +1935,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
@@ -2047,7 +1954,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -2066,7 +1973,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -2085,7 +1992,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -2104,7 +2011,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
@@ -2123,7 +2030,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
@@ -2142,7 +2049,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
@@ -2161,7 +2068,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
@@ -2180,7 +2087,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
@@ -2199,7 +2106,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
@@ -2218,7 +2125,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
@@ -2237,7 +2144,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
@@ -2255,15 +2162,8 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-    </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
@@ -2289,7 +2189,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -2315,7 +2215,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
@@ -2341,7 +2241,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -2367,7 +2267,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -2393,7 +2293,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
@@ -2419,7 +2319,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
@@ -2445,7 +2345,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
@@ -2471,7 +2371,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3"/>
@@ -2497,7 +2397,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
@@ -2523,7 +2423,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -2549,7 +2449,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
@@ -2575,7 +2475,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3"/>
@@ -2601,7 +2501,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -2627,7 +2527,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
@@ -2653,7 +2553,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3"/>
@@ -2679,7 +2579,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
@@ -2705,7 +2605,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
@@ -2731,7 +2631,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
@@ -2757,7 +2657,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
@@ -2783,7 +2683,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -2809,7 +2709,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -2835,7 +2735,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
@@ -2861,7 +2761,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
@@ -2887,7 +2787,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
     </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
@@ -2913,7 +2813,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
     </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
@@ -2939,7 +2839,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
     </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3"/>
@@ -2965,7 +2865,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
     </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3"/>
@@ -2991,7 +2891,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -3017,7 +2917,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -3043,7 +2943,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -3069,7 +2969,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3"/>
@@ -3095,7 +2995,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3"/>
@@ -3121,7 +3021,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
-    <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3"/>
@@ -3147,7 +3047,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
     </row>
-    <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="3"/>
@@ -3173,7 +3073,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
     </row>
-    <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="3"/>
@@ -3199,7 +3099,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
     </row>
-    <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3"/>
@@ -3225,7 +3125,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
     </row>
-    <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
@@ -3251,7 +3151,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
     </row>
-    <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3"/>
@@ -3277,7 +3177,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
     </row>
-    <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="3"/>
@@ -3303,7 +3203,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
     </row>
-    <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="3"/>
@@ -3329,7 +3229,7 @@
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
     </row>
-    <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="3"/>
@@ -3355,7 +3255,7 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
     </row>
-    <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3"/>
@@ -3381,7 +3281,7 @@
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
     </row>
-    <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="3"/>
@@ -3407,7 +3307,7 @@
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
     </row>
-    <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="3"/>
@@ -3433,7 +3333,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
     </row>
-    <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="3"/>
@@ -3459,7 +3359,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3"/>
@@ -3485,7 +3385,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3"/>
@@ -3511,7 +3411,7 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="3"/>
@@ -3537,7 +3437,7 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
     </row>
-    <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="3"/>
@@ -3563,7 +3463,7 @@
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
     </row>
-    <row r="102" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="3"/>
@@ -3589,7 +3489,7 @@
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
     </row>
-    <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3"/>
@@ -3615,7 +3515,7 @@
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
     </row>
-    <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="3"/>
@@ -3641,7 +3541,7 @@
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
     </row>
-    <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="3"/>
@@ -3667,7 +3567,7 @@
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
     </row>
-    <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="3"/>
@@ -3693,7 +3593,7 @@
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
     </row>
-    <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="3"/>
@@ -3719,7 +3619,7 @@
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
     </row>
-    <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3"/>
@@ -3745,7 +3645,7 @@
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
     </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
@@ -3771,7 +3671,7 @@
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
     </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3"/>
@@ -3797,7 +3697,7 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
     </row>
-    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3"/>
@@ -3823,7 +3723,7 @@
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
     </row>
-    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3"/>
@@ -3849,7 +3749,7 @@
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
     </row>
-    <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="3"/>
@@ -3875,7 +3775,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
     </row>
-    <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="3"/>
@@ -3901,7 +3801,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="3"/>
@@ -3927,7 +3827,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="3"/>
@@ -3953,7 +3853,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="3"/>
@@ -3979,7 +3879,7 @@
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
     </row>
-    <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="3"/>
@@ -4005,7 +3905,7 @@
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="3"/>
@@ -4031,7 +3931,7 @@
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3"/>
@@ -4057,7 +3957,7 @@
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="3"/>
@@ -4083,7 +3983,7 @@
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="3"/>
@@ -4109,7 +4009,7 @@
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3"/>
@@ -4135,7 +4035,7 @@
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
     </row>
-    <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="3"/>
@@ -4161,7 +4061,7 @@
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
     </row>
-    <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="3"/>
@@ -4187,7 +4087,7 @@
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
     </row>
-    <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="3"/>
@@ -4213,7 +4113,7 @@
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="3"/>
@@ -4239,7 +4139,7 @@
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="3"/>
@@ -4265,7 +4165,7 @@
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="3"/>
@@ -4291,7 +4191,7 @@
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
     </row>
-    <row r="130" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="3"/>
@@ -4317,7 +4217,7 @@
       <c r="W130" s="4"/>
       <c r="X130" s="4"/>
     </row>
-    <row r="131" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="3"/>
@@ -4343,7 +4243,7 @@
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
     </row>
-    <row r="132" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="3"/>
@@ -4369,7 +4269,7 @@
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="3"/>
@@ -4395,7 +4295,7 @@
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
     </row>
-    <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="3"/>
@@ -4421,7 +4321,7 @@
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
     </row>
-    <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="3"/>
@@ -4447,7 +4347,7 @@
       <c r="W135" s="4"/>
       <c r="X135" s="4"/>
     </row>
-    <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="3"/>
@@ -4473,7 +4373,7 @@
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
     </row>
-    <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3"/>
@@ -4499,7 +4399,7 @@
       <c r="W137" s="4"/>
       <c r="X137" s="4"/>
     </row>
-    <row r="138" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3"/>
@@ -4525,7 +4425,7 @@
       <c r="W138" s="4"/>
       <c r="X138" s="4"/>
     </row>
-    <row r="139" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="3"/>
@@ -4551,7 +4451,7 @@
       <c r="W139" s="4"/>
       <c r="X139" s="4"/>
     </row>
-    <row r="140" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="3"/>
@@ -4577,7 +4477,7 @@
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
     </row>
-    <row r="141" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="3"/>
@@ -4603,7 +4503,7 @@
       <c r="W141" s="4"/>
       <c r="X141" s="4"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="3"/>
@@ -4629,7 +4529,7 @@
       <c r="W142" s="4"/>
       <c r="X142" s="4"/>
     </row>
-    <row r="143" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3"/>
@@ -4655,7 +4555,7 @@
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>
     </row>
-    <row r="144" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3"/>
@@ -4681,7 +4581,7 @@
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
     </row>
-    <row r="145" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3"/>
@@ -4707,7 +4607,7 @@
       <c r="W145" s="4"/>
       <c r="X145" s="4"/>
     </row>
-    <row r="146" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="3"/>
@@ -4733,7 +4633,7 @@
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
     </row>
-    <row r="147" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="3"/>
@@ -4759,7 +4659,7 @@
       <c r="W147" s="4"/>
       <c r="X147" s="4"/>
     </row>
-    <row r="148" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="3"/>
@@ -4785,7 +4685,7 @@
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
     </row>
-    <row r="149" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="3"/>
@@ -4811,7 +4711,7 @@
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
     </row>
-    <row r="150" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="3"/>
@@ -4837,7 +4737,7 @@
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
     </row>
-    <row r="151" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="3"/>
@@ -4863,7 +4763,7 @@
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
     </row>
-    <row r="152" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="3"/>
@@ -4889,7 +4789,7 @@
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
     </row>
-    <row r="153" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="3"/>
@@ -4915,7 +4815,7 @@
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
     </row>
-    <row r="154" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="3"/>
@@ -4941,7 +4841,7 @@
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
     </row>
-    <row r="155" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="3"/>
@@ -4967,7 +4867,7 @@
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
     </row>
-    <row r="156" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="3"/>
@@ -4993,7 +4893,7 @@
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
     </row>
-    <row r="157" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3"/>
@@ -5019,7 +4919,7 @@
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
     </row>
-    <row r="158" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
@@ -5045,7 +4945,7 @@
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
     </row>
-    <row r="159" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="3"/>
@@ -5071,7 +4971,7 @@
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
     </row>
-    <row r="160" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3"/>
@@ -5097,7 +4997,7 @@
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
     </row>
-    <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="3"/>
@@ -5123,7 +5023,7 @@
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
     </row>
-    <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="3"/>
@@ -5149,7 +5049,7 @@
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
     </row>
-    <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="3"/>
@@ -5175,7 +5075,7 @@
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
     </row>
-    <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3"/>
@@ -5201,7 +5101,7 @@
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
     </row>
-    <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3"/>
@@ -5227,7 +5127,7 @@
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
     </row>
-    <row r="166" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="3"/>
@@ -5253,7 +5153,7 @@
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
     </row>
-    <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="3"/>
@@ -5279,7 +5179,7 @@
       <c r="W167" s="4"/>
       <c r="X167" s="4"/>
     </row>
-    <row r="168" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="3"/>
@@ -5305,7 +5205,7 @@
       <c r="W168" s="4"/>
       <c r="X168" s="4"/>
     </row>
-    <row r="169" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="3"/>
@@ -5331,7 +5231,7 @@
       <c r="W169" s="4"/>
       <c r="X169" s="4"/>
     </row>
-    <row r="170" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="3"/>
@@ -5357,7 +5257,7 @@
       <c r="W170" s="4"/>
       <c r="X170" s="4"/>
     </row>
-    <row r="171" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="3"/>
@@ -5383,7 +5283,7 @@
       <c r="W171" s="4"/>
       <c r="X171" s="4"/>
     </row>
-    <row r="172" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="3"/>
@@ -5409,7 +5309,7 @@
       <c r="W172" s="4"/>
       <c r="X172" s="4"/>
     </row>
-    <row r="173" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="3"/>
@@ -5435,7 +5335,7 @@
       <c r="W173" s="4"/>
       <c r="X173" s="4"/>
     </row>
-    <row r="174" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3"/>
@@ -5461,7 +5361,7 @@
       <c r="W174" s="4"/>
       <c r="X174" s="4"/>
     </row>
-    <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3"/>
@@ -5487,7 +5387,7 @@
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
     </row>
-    <row r="176" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="3"/>
@@ -5513,7 +5413,7 @@
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
     </row>
-    <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="3"/>
@@ -5539,7 +5439,7 @@
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
     </row>
-    <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="3"/>
@@ -5565,7 +5465,7 @@
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
     </row>
-    <row r="179" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="3"/>
@@ -5591,7 +5491,7 @@
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
     </row>
-    <row r="180" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="3"/>
@@ -5617,7 +5517,7 @@
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
     </row>
-    <row r="181" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3"/>
@@ -5643,7 +5543,7 @@
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
     </row>
-    <row r="182" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="3"/>
@@ -5669,7 +5569,7 @@
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
     </row>
-    <row r="183" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="3"/>
@@ -5695,7 +5595,7 @@
       <c r="W183" s="4"/>
       <c r="X183" s="4"/>
     </row>
-    <row r="184" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="3"/>
@@ -5721,7 +5621,7 @@
       <c r="W184" s="4"/>
       <c r="X184" s="4"/>
     </row>
-    <row r="185" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="3"/>
@@ -5747,7 +5647,7 @@
       <c r="W185" s="4"/>
       <c r="X185" s="4"/>
     </row>
-    <row r="186" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="3"/>
@@ -5773,7 +5673,7 @@
       <c r="W186" s="4"/>
       <c r="X186" s="4"/>
     </row>
-    <row r="187" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="3"/>
@@ -5799,7 +5699,7 @@
       <c r="W187" s="4"/>
       <c r="X187" s="4"/>
     </row>
-    <row r="188" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="3"/>
@@ -5825,7 +5725,7 @@
       <c r="W188" s="4"/>
       <c r="X188" s="4"/>
     </row>
-    <row r="189" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="3"/>
@@ -5851,7 +5751,7 @@
       <c r="W189" s="4"/>
       <c r="X189" s="4"/>
     </row>
-    <row r="190" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="3"/>
@@ -5877,7 +5777,7 @@
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
     </row>
-    <row r="191" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3"/>
@@ -5903,7 +5803,7 @@
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
     </row>
-    <row r="192" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3"/>
@@ -5929,7 +5829,7 @@
       <c r="W192" s="4"/>
       <c r="X192" s="4"/>
     </row>
-    <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="3"/>
@@ -5955,7 +5855,7 @@
       <c r="W193" s="4"/>
       <c r="X193" s="4"/>
     </row>
-    <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="3"/>
@@ -5981,7 +5881,7 @@
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
     </row>
-    <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
@@ -6007,7 +5907,7 @@
       <c r="W195" s="4"/>
       <c r="X195" s="4"/>
     </row>
-    <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="3"/>
@@ -6033,7 +5933,7 @@
       <c r="W196" s="4"/>
       <c r="X196" s="4"/>
     </row>
-    <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="3"/>
@@ -6059,7 +5959,7 @@
       <c r="W197" s="4"/>
       <c r="X197" s="4"/>
     </row>
-    <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="3"/>
@@ -6085,7 +5985,7 @@
       <c r="W198" s="4"/>
       <c r="X198" s="4"/>
     </row>
-    <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="3"/>
@@ -6111,7 +6011,7 @@
       <c r="W199" s="4"/>
       <c r="X199" s="4"/>
     </row>
-    <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="3"/>
@@ -6137,7 +6037,7 @@
       <c r="W200" s="4"/>
       <c r="X200" s="4"/>
     </row>
-    <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="3"/>
@@ -6163,7 +6063,7 @@
       <c r="W201" s="4"/>
       <c r="X201" s="4"/>
     </row>
-    <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="3"/>
@@ -6189,7 +6089,7 @@
       <c r="W202" s="4"/>
       <c r="X202" s="4"/>
     </row>
-    <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="3"/>
@@ -6215,7 +6115,7 @@
       <c r="W203" s="4"/>
       <c r="X203" s="4"/>
     </row>
-    <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="3"/>
@@ -6241,7 +6141,7 @@
       <c r="W204" s="4"/>
       <c r="X204" s="4"/>
     </row>
-    <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="3"/>
@@ -6267,7 +6167,7 @@
       <c r="W205" s="4"/>
       <c r="X205" s="4"/>
     </row>
-    <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="3"/>
@@ -6293,7 +6193,7 @@
       <c r="W206" s="4"/>
       <c r="X206" s="4"/>
     </row>
-    <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="3"/>
@@ -6319,7 +6219,7 @@
       <c r="W207" s="4"/>
       <c r="X207" s="4"/>
     </row>
-    <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="3"/>
@@ -6345,7 +6245,7 @@
       <c r="W208" s="4"/>
       <c r="X208" s="4"/>
     </row>
-    <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="3"/>
@@ -6371,7 +6271,7 @@
       <c r="W209" s="4"/>
       <c r="X209" s="4"/>
     </row>
-    <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="3"/>
@@ -6397,7 +6297,7 @@
       <c r="W210" s="4"/>
       <c r="X210" s="4"/>
     </row>
-    <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="3"/>
@@ -6423,7 +6323,7 @@
       <c r="W211" s="4"/>
       <c r="X211" s="4"/>
     </row>
-    <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="3"/>
@@ -6449,7 +6349,7 @@
       <c r="W212" s="4"/>
       <c r="X212" s="4"/>
     </row>
-    <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="3"/>
@@ -6475,7 +6375,7 @@
       <c r="W213" s="4"/>
       <c r="X213" s="4"/>
     </row>
-    <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="3"/>
@@ -6501,7 +6401,7 @@
       <c r="W214" s="4"/>
       <c r="X214" s="4"/>
     </row>
-    <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="3"/>
@@ -6527,7 +6427,7 @@
       <c r="W215" s="4"/>
       <c r="X215" s="4"/>
     </row>
-    <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="3"/>
@@ -6553,7 +6453,7 @@
       <c r="W216" s="4"/>
       <c r="X216" s="4"/>
     </row>
-    <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="3"/>
@@ -6579,7 +6479,7 @@
       <c r="W217" s="4"/>
       <c r="X217" s="4"/>
     </row>
-    <row r="218" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3"/>
@@ -6605,7 +6505,7 @@
       <c r="W218" s="4"/>
       <c r="X218" s="4"/>
     </row>
-    <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3"/>
@@ -6631,7 +6531,7 @@
       <c r="W219" s="4"/>
       <c r="X219" s="4"/>
     </row>
-    <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="3"/>
@@ -6657,7 +6557,7 @@
       <c r="W220" s="4"/>
       <c r="X220" s="4"/>
     </row>
-    <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="3"/>
@@ -6683,7 +6583,7 @@
       <c r="W221" s="4"/>
       <c r="X221" s="4"/>
     </row>
-    <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="3"/>
@@ -6709,7 +6609,7 @@
       <c r="W222" s="4"/>
       <c r="X222" s="4"/>
     </row>
-    <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="3"/>
@@ -6735,7 +6635,7 @@
       <c r="W223" s="4"/>
       <c r="X223" s="4"/>
     </row>
-    <row r="224" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="3"/>
@@ -6761,7 +6661,7 @@
       <c r="W224" s="4"/>
       <c r="X224" s="4"/>
     </row>
-    <row r="225" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="3"/>
@@ -6787,7 +6687,7 @@
       <c r="W225" s="4"/>
       <c r="X225" s="4"/>
     </row>
-    <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="3"/>
@@ -6813,7 +6713,7 @@
       <c r="W226" s="4"/>
       <c r="X226" s="4"/>
     </row>
-    <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="3"/>
@@ -6839,7 +6739,7 @@
       <c r="W227" s="4"/>
       <c r="X227" s="4"/>
     </row>
-    <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="3"/>
@@ -6865,7 +6765,7 @@
       <c r="W228" s="4"/>
       <c r="X228" s="4"/>
     </row>
-    <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="3"/>
@@ -6891,7 +6791,7 @@
       <c r="W229" s="4"/>
       <c r="X229" s="4"/>
     </row>
-    <row r="230" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="3"/>
@@ -6917,7 +6817,7 @@
       <c r="W230" s="4"/>
       <c r="X230" s="4"/>
     </row>
-    <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="3"/>
@@ -6943,7 +6843,7 @@
       <c r="W231" s="4"/>
       <c r="X231" s="4"/>
     </row>
-    <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="3"/>
@@ -6969,7 +6869,7 @@
       <c r="W232" s="4"/>
       <c r="X232" s="4"/>
     </row>
-    <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="3"/>
@@ -6995,7 +6895,7 @@
       <c r="W233" s="4"/>
       <c r="X233" s="4"/>
     </row>
-    <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="3"/>
@@ -7021,7 +6921,7 @@
       <c r="W234" s="4"/>
       <c r="X234" s="4"/>
     </row>
-    <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="3"/>
@@ -7047,7 +6947,7 @@
       <c r="W235" s="4"/>
       <c r="X235" s="4"/>
     </row>
-    <row r="236" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="3"/>
@@ -7073,23 +6973,23 @@
       <c r="W236" s="4"/>
       <c r="X236" s="4"/>
     </row>
-    <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
-      <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
-      <c r="I237" s="4"/>
-      <c r="J237" s="4"/>
-      <c r="K237" s="4"/>
-      <c r="L237" s="4"/>
-      <c r="M237" s="4"/>
-      <c r="N237" s="4"/>
-      <c r="O237" s="4"/>
-      <c r="P237" s="4"/>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
       <c r="Q237" s="4"/>
       <c r="R237" s="4"/>
       <c r="S237" s="4"/>
@@ -7099,7 +6999,7 @@
       <c r="W237" s="4"/>
       <c r="X237" s="4"/>
     </row>
-    <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -7125,7 +7025,7 @@
       <c r="W238" s="4"/>
       <c r="X238" s="4"/>
     </row>
-    <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -7151,7 +7051,7 @@
       <c r="W239" s="4"/>
       <c r="X239" s="4"/>
     </row>
-    <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -7177,7 +7077,7 @@
       <c r="W240" s="4"/>
       <c r="X240" s="4"/>
     </row>
-    <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -7203,7 +7103,7 @@
       <c r="W241" s="4"/>
       <c r="X241" s="4"/>
     </row>
-    <row r="242" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -7229,7 +7129,7 @@
       <c r="W242" s="4"/>
       <c r="X242" s="4"/>
     </row>
-    <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -7255,7 +7155,7 @@
       <c r="W243" s="4"/>
       <c r="X243" s="4"/>
     </row>
-    <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -7281,7 +7181,7 @@
       <c r="W244" s="4"/>
       <c r="X244" s="4"/>
     </row>
-    <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -7307,7 +7207,7 @@
       <c r="W245" s="4"/>
       <c r="X245" s="4"/>
     </row>
-    <row r="246" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -7333,7 +7233,7 @@
       <c r="W246" s="4"/>
       <c r="X246" s="4"/>
     </row>
-    <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -7359,7 +7259,7 @@
       <c r="W247" s="4"/>
       <c r="X247" s="4"/>
     </row>
-    <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -7385,7 +7285,7 @@
       <c r="W248" s="4"/>
       <c r="X248" s="4"/>
     </row>
-    <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -7411,7 +7311,7 @@
       <c r="W249" s="4"/>
       <c r="X249" s="4"/>
     </row>
-    <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -7437,7 +7337,7 @@
       <c r="W250" s="4"/>
       <c r="X250" s="4"/>
     </row>
-    <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -7463,7 +7363,7 @@
       <c r="W251" s="4"/>
       <c r="X251" s="4"/>
     </row>
-    <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -7489,7 +7389,7 @@
       <c r="W252" s="4"/>
       <c r="X252" s="4"/>
     </row>
-    <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -7515,7 +7415,7 @@
       <c r="W253" s="4"/>
       <c r="X253" s="4"/>
     </row>
-    <row r="254" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -7541,7 +7441,7 @@
       <c r="W254" s="4"/>
       <c r="X254" s="4"/>
     </row>
-    <row r="255" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -7567,7 +7467,7 @@
       <c r="W255" s="4"/>
       <c r="X255" s="4"/>
     </row>
-    <row r="256" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -7593,7 +7493,7 @@
       <c r="W256" s="4"/>
       <c r="X256" s="4"/>
     </row>
-    <row r="257" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -7619,7 +7519,7 @@
       <c r="W257" s="4"/>
       <c r="X257" s="4"/>
     </row>
-    <row r="258" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -7645,7 +7545,7 @@
       <c r="W258" s="4"/>
       <c r="X258" s="4"/>
     </row>
-    <row r="259" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -7671,7 +7571,7 @@
       <c r="W259" s="4"/>
       <c r="X259" s="4"/>
     </row>
-    <row r="260" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -7697,7 +7597,7 @@
       <c r="W260" s="4"/>
       <c r="X260" s="4"/>
     </row>
-    <row r="261" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -7723,7 +7623,7 @@
       <c r="W261" s="4"/>
       <c r="X261" s="4"/>
     </row>
-    <row r="262" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -7749,7 +7649,7 @@
       <c r="W262" s="4"/>
       <c r="X262" s="4"/>
     </row>
-    <row r="263" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -7775,7 +7675,7 @@
       <c r="W263" s="4"/>
       <c r="X263" s="4"/>
     </row>
-    <row r="264" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -7801,7 +7701,7 @@
       <c r="W264" s="4"/>
       <c r="X264" s="4"/>
     </row>
-    <row r="265" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -7827,7 +7727,7 @@
       <c r="W265" s="4"/>
       <c r="X265" s="4"/>
     </row>
-    <row r="266" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -7853,7 +7753,7 @@
       <c r="W266" s="4"/>
       <c r="X266" s="4"/>
     </row>
-    <row r="267" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -7879,7 +7779,7 @@
       <c r="W267" s="4"/>
       <c r="X267" s="4"/>
     </row>
-    <row r="268" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -7905,7 +7805,7 @@
       <c r="W268" s="4"/>
       <c r="X268" s="4"/>
     </row>
-    <row r="269" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -7931,7 +7831,7 @@
       <c r="W269" s="4"/>
       <c r="X269" s="4"/>
     </row>
-    <row r="270" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -7957,7 +7857,7 @@
       <c r="W270" s="4"/>
       <c r="X270" s="4"/>
     </row>
-    <row r="271" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -7983,7 +7883,7 @@
       <c r="W271" s="4"/>
       <c r="X271" s="4"/>
     </row>
-    <row r="272" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -8009,7 +7909,7 @@
       <c r="W272" s="4"/>
       <c r="X272" s="4"/>
     </row>
-    <row r="273" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -8035,7 +7935,7 @@
       <c r="W273" s="4"/>
       <c r="X273" s="4"/>
     </row>
-    <row r="274" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -8061,7 +7961,7 @@
       <c r="W274" s="4"/>
       <c r="X274" s="4"/>
     </row>
-    <row r="275" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -8087,7 +7987,7 @@
       <c r="W275" s="4"/>
       <c r="X275" s="4"/>
     </row>
-    <row r="276" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -8113,7 +8013,7 @@
       <c r="W276" s="4"/>
       <c r="X276" s="4"/>
     </row>
-    <row r="277" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -8139,7 +8039,7 @@
       <c r="W277" s="4"/>
       <c r="X277" s="4"/>
     </row>
-    <row r="278" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -8165,7 +8065,7 @@
       <c r="W278" s="4"/>
       <c r="X278" s="4"/>
     </row>
-    <row r="279" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -8191,7 +8091,7 @@
       <c r="W279" s="4"/>
       <c r="X279" s="4"/>
     </row>
-    <row r="280" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -8217,7 +8117,7 @@
       <c r="W280" s="4"/>
       <c r="X280" s="4"/>
     </row>
-    <row r="281" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -8243,7 +8143,7 @@
       <c r="W281" s="4"/>
       <c r="X281" s="4"/>
     </row>
-    <row r="282" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -8269,7 +8169,7 @@
       <c r="W282" s="4"/>
       <c r="X282" s="4"/>
     </row>
-    <row r="283" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -8295,7 +8195,7 @@
       <c r="W283" s="4"/>
       <c r="X283" s="4"/>
     </row>
-    <row r="284" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -8321,7 +8221,7 @@
       <c r="W284" s="4"/>
       <c r="X284" s="4"/>
     </row>
-    <row r="285" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -8347,7 +8247,7 @@
       <c r="W285" s="4"/>
       <c r="X285" s="4"/>
     </row>
-    <row r="286" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -8373,7 +8273,7 @@
       <c r="W286" s="4"/>
       <c r="X286" s="4"/>
     </row>
-    <row r="287" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -8399,7 +8299,7 @@
       <c r="W287" s="4"/>
       <c r="X287" s="4"/>
     </row>
-    <row r="288" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -8425,7 +8325,7 @@
       <c r="W288" s="4"/>
       <c r="X288" s="4"/>
     </row>
-    <row r="289" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -8451,7 +8351,7 @@
       <c r="W289" s="4"/>
       <c r="X289" s="4"/>
     </row>
-    <row r="290" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -8477,7 +8377,7 @@
       <c r="W290" s="4"/>
       <c r="X290" s="4"/>
     </row>
-    <row r="291" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -8503,7 +8403,7 @@
       <c r="W291" s="4"/>
       <c r="X291" s="4"/>
     </row>
-    <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -8529,7 +8429,7 @@
       <c r="W292" s="4"/>
       <c r="X292" s="4"/>
     </row>
-    <row r="293" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -8555,7 +8455,7 @@
       <c r="W293" s="4"/>
       <c r="X293" s="4"/>
     </row>
-    <row r="294" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -8581,7 +8481,7 @@
       <c r="W294" s="4"/>
       <c r="X294" s="4"/>
     </row>
-    <row r="295" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -8607,7 +8507,7 @@
       <c r="W295" s="4"/>
       <c r="X295" s="4"/>
     </row>
-    <row r="296" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -8633,7 +8533,7 @@
       <c r="W296" s="4"/>
       <c r="X296" s="4"/>
     </row>
-    <row r="297" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -8659,7 +8559,7 @@
       <c r="W297" s="4"/>
       <c r="X297" s="4"/>
     </row>
-    <row r="298" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -8685,7 +8585,7 @@
       <c r="W298" s="4"/>
       <c r="X298" s="4"/>
     </row>
-    <row r="299" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -8711,7 +8611,7 @@
       <c r="W299" s="4"/>
       <c r="X299" s="4"/>
     </row>
-    <row r="300" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -8737,7 +8637,7 @@
       <c r="W300" s="4"/>
       <c r="X300" s="4"/>
     </row>
-    <row r="301" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -8763,7 +8663,7 @@
       <c r="W301" s="4"/>
       <c r="X301" s="4"/>
     </row>
-    <row r="302" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -8789,7 +8689,7 @@
       <c r="W302" s="4"/>
       <c r="X302" s="4"/>
     </row>
-    <row r="303" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -8815,7 +8715,7 @@
       <c r="W303" s="4"/>
       <c r="X303" s="4"/>
     </row>
-    <row r="304" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -8841,7 +8741,7 @@
       <c r="W304" s="4"/>
       <c r="X304" s="4"/>
     </row>
-    <row r="305" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -8867,7 +8767,7 @@
       <c r="W305" s="4"/>
       <c r="X305" s="4"/>
     </row>
-    <row r="306" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -8893,7 +8793,7 @@
       <c r="W306" s="4"/>
       <c r="X306" s="4"/>
     </row>
-    <row r="307" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -8919,7 +8819,7 @@
       <c r="W307" s="4"/>
       <c r="X307" s="4"/>
     </row>
-    <row r="308" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -8945,7 +8845,7 @@
       <c r="W308" s="4"/>
       <c r="X308" s="4"/>
     </row>
-    <row r="309" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -8971,7 +8871,7 @@
       <c r="W309" s="4"/>
       <c r="X309" s="4"/>
     </row>
-    <row r="310" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -8997,7 +8897,7 @@
       <c r="W310" s="4"/>
       <c r="X310" s="4"/>
     </row>
-    <row r="311" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -9023,7 +8923,7 @@
       <c r="W311" s="4"/>
       <c r="X311" s="4"/>
     </row>
-    <row r="312" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -9049,7 +8949,7 @@
       <c r="W312" s="4"/>
       <c r="X312" s="4"/>
     </row>
-    <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -9075,7 +8975,7 @@
       <c r="W313" s="4"/>
       <c r="X313" s="4"/>
     </row>
-    <row r="314" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -9101,7 +9001,7 @@
       <c r="W314" s="4"/>
       <c r="X314" s="4"/>
     </row>
-    <row r="315" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -9127,7 +9027,7 @@
       <c r="W315" s="4"/>
       <c r="X315" s="4"/>
     </row>
-    <row r="316" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -9153,7 +9053,7 @@
       <c r="W316" s="4"/>
       <c r="X316" s="4"/>
     </row>
-    <row r="317" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -9179,7 +9079,7 @@
       <c r="W317" s="4"/>
       <c r="X317" s="4"/>
     </row>
-    <row r="318" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -9205,7 +9105,7 @@
       <c r="W318" s="4"/>
       <c r="X318" s="4"/>
     </row>
-    <row r="319" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -9231,7 +9131,7 @@
       <c r="W319" s="4"/>
       <c r="X319" s="4"/>
     </row>
-    <row r="320" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -9257,7 +9157,7 @@
       <c r="W320" s="4"/>
       <c r="X320" s="4"/>
     </row>
-    <row r="321" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -9283,7 +9183,7 @@
       <c r="W321" s="4"/>
       <c r="X321" s="4"/>
     </row>
-    <row r="322" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -9309,7 +9209,7 @@
       <c r="W322" s="4"/>
       <c r="X322" s="4"/>
     </row>
-    <row r="323" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -9335,7 +9235,7 @@
       <c r="W323" s="4"/>
       <c r="X323" s="4"/>
     </row>
-    <row r="324" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -9361,7 +9261,7 @@
       <c r="W324" s="4"/>
       <c r="X324" s="4"/>
     </row>
-    <row r="325" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -9387,7 +9287,7 @@
       <c r="W325" s="4"/>
       <c r="X325" s="4"/>
     </row>
-    <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -9413,7 +9313,7 @@
       <c r="W326" s="4"/>
       <c r="X326" s="4"/>
     </row>
-    <row r="327" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -9439,7 +9339,7 @@
       <c r="W327" s="4"/>
       <c r="X327" s="4"/>
     </row>
-    <row r="328" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -9465,7 +9365,7 @@
       <c r="W328" s="4"/>
       <c r="X328" s="4"/>
     </row>
-    <row r="329" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -9491,7 +9391,7 @@
       <c r="W329" s="4"/>
       <c r="X329" s="4"/>
     </row>
-    <row r="330" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -9517,7 +9417,7 @@
       <c r="W330" s="4"/>
       <c r="X330" s="4"/>
     </row>
-    <row r="331" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -9543,7 +9443,7 @@
       <c r="W331" s="4"/>
       <c r="X331" s="4"/>
     </row>
-    <row r="332" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -9569,7 +9469,7 @@
       <c r="W332" s="4"/>
       <c r="X332" s="4"/>
     </row>
-    <row r="333" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -9595,7 +9495,7 @@
       <c r="W333" s="4"/>
       <c r="X333" s="4"/>
     </row>
-    <row r="334" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -9621,7 +9521,7 @@
       <c r="W334" s="4"/>
       <c r="X334" s="4"/>
     </row>
-    <row r="335" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -9647,7 +9547,7 @@
       <c r="W335" s="4"/>
       <c r="X335" s="4"/>
     </row>
-    <row r="336" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -9673,7 +9573,7 @@
       <c r="W336" s="4"/>
       <c r="X336" s="4"/>
     </row>
-    <row r="337" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -9699,7 +9599,7 @@
       <c r="W337" s="4"/>
       <c r="X337" s="4"/>
     </row>
-    <row r="338" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -9725,7 +9625,7 @@
       <c r="W338" s="4"/>
       <c r="X338" s="4"/>
     </row>
-    <row r="339" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -9751,7 +9651,7 @@
       <c r="W339" s="4"/>
       <c r="X339" s="4"/>
     </row>
-    <row r="340" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -9777,7 +9677,7 @@
       <c r="W340" s="4"/>
       <c r="X340" s="4"/>
     </row>
-    <row r="341" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -9803,7 +9703,7 @@
       <c r="W341" s="4"/>
       <c r="X341" s="4"/>
     </row>
-    <row r="342" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -9829,7 +9729,7 @@
       <c r="W342" s="4"/>
       <c r="X342" s="4"/>
     </row>
-    <row r="343" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -9855,7 +9755,7 @@
       <c r="W343" s="4"/>
       <c r="X343" s="4"/>
     </row>
-    <row r="344" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -9881,7 +9781,7 @@
       <c r="W344" s="4"/>
       <c r="X344" s="4"/>
     </row>
-    <row r="345" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -9907,7 +9807,7 @@
       <c r="W345" s="4"/>
       <c r="X345" s="4"/>
     </row>
-    <row r="346" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -9933,7 +9833,7 @@
       <c r="W346" s="4"/>
       <c r="X346" s="4"/>
     </row>
-    <row r="347" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -9959,7 +9859,7 @@
       <c r="W347" s="4"/>
       <c r="X347" s="4"/>
     </row>
-    <row r="348" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -9985,7 +9885,7 @@
       <c r="W348" s="4"/>
       <c r="X348" s="4"/>
     </row>
-    <row r="349" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -10011,7 +9911,7 @@
       <c r="W349" s="4"/>
       <c r="X349" s="4"/>
     </row>
-    <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -10037,7 +9937,7 @@
       <c r="W350" s="4"/>
       <c r="X350" s="4"/>
     </row>
-    <row r="351" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -10063,7 +9963,7 @@
       <c r="W351" s="4"/>
       <c r="X351" s="4"/>
     </row>
-    <row r="352" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -10089,7 +9989,7 @@
       <c r="W352" s="4"/>
       <c r="X352" s="4"/>
     </row>
-    <row r="353" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -10115,7 +10015,7 @@
       <c r="W353" s="4"/>
       <c r="X353" s="4"/>
     </row>
-    <row r="354" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -10141,7 +10041,7 @@
       <c r="W354" s="4"/>
       <c r="X354" s="4"/>
     </row>
-    <row r="355" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -10167,7 +10067,7 @@
       <c r="W355" s="4"/>
       <c r="X355" s="4"/>
     </row>
-    <row r="356" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -10193,7 +10093,7 @@
       <c r="W356" s="4"/>
       <c r="X356" s="4"/>
     </row>
-    <row r="357" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -10219,7 +10119,7 @@
       <c r="W357" s="4"/>
       <c r="X357" s="4"/>
     </row>
-    <row r="358" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -10245,7 +10145,7 @@
       <c r="W358" s="4"/>
       <c r="X358" s="4"/>
     </row>
-    <row r="359" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -10271,7 +10171,7 @@
       <c r="W359" s="4"/>
       <c r="X359" s="4"/>
     </row>
-    <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -10297,7 +10197,7 @@
       <c r="W360" s="4"/>
       <c r="X360" s="4"/>
     </row>
-    <row r="361" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -10323,7 +10223,7 @@
       <c r="W361" s="4"/>
       <c r="X361" s="4"/>
     </row>
-    <row r="362" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -10349,7 +10249,7 @@
       <c r="W362" s="4"/>
       <c r="X362" s="4"/>
     </row>
-    <row r="363" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -10375,7 +10275,7 @@
       <c r="W363" s="4"/>
       <c r="X363" s="4"/>
     </row>
-    <row r="364" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -10401,7 +10301,7 @@
       <c r="W364" s="4"/>
       <c r="X364" s="4"/>
     </row>
-    <row r="365" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -10427,7 +10327,7 @@
       <c r="W365" s="4"/>
       <c r="X365" s="4"/>
     </row>
-    <row r="366" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -10453,7 +10353,7 @@
       <c r="W366" s="4"/>
       <c r="X366" s="4"/>
     </row>
-    <row r="367" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -10479,7 +10379,7 @@
       <c r="W367" s="4"/>
       <c r="X367" s="4"/>
     </row>
-    <row r="368" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -10505,7 +10405,7 @@
       <c r="W368" s="4"/>
       <c r="X368" s="4"/>
     </row>
-    <row r="369" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -10531,7 +10431,7 @@
       <c r="W369" s="4"/>
       <c r="X369" s="4"/>
     </row>
-    <row r="370" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -10557,7 +10457,7 @@
       <c r="W370" s="4"/>
       <c r="X370" s="4"/>
     </row>
-    <row r="371" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -10583,7 +10483,7 @@
       <c r="W371" s="4"/>
       <c r="X371" s="4"/>
     </row>
-    <row r="372" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -10609,7 +10509,7 @@
       <c r="W372" s="4"/>
       <c r="X372" s="4"/>
     </row>
-    <row r="373" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -10635,7 +10535,7 @@
       <c r="W373" s="4"/>
       <c r="X373" s="4"/>
     </row>
-    <row r="374" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -10661,7 +10561,7 @@
       <c r="W374" s="4"/>
       <c r="X374" s="4"/>
     </row>
-    <row r="375" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -10687,7 +10587,7 @@
       <c r="W375" s="4"/>
       <c r="X375" s="4"/>
     </row>
-    <row r="376" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -10713,7 +10613,7 @@
       <c r="W376" s="4"/>
       <c r="X376" s="4"/>
     </row>
-    <row r="377" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -10739,7 +10639,7 @@
       <c r="W377" s="4"/>
       <c r="X377" s="4"/>
     </row>
-    <row r="378" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -10765,7 +10665,7 @@
       <c r="W378" s="4"/>
       <c r="X378" s="4"/>
     </row>
-    <row r="379" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -10791,7 +10691,7 @@
       <c r="W379" s="4"/>
       <c r="X379" s="4"/>
     </row>
-    <row r="380" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -10817,7 +10717,7 @@
       <c r="W380" s="4"/>
       <c r="X380" s="4"/>
     </row>
-    <row r="381" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -10843,7 +10743,7 @@
       <c r="W381" s="4"/>
       <c r="X381" s="4"/>
     </row>
-    <row r="382" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -10869,7 +10769,7 @@
       <c r="W382" s="4"/>
       <c r="X382" s="4"/>
     </row>
-    <row r="383" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -10895,7 +10795,7 @@
       <c r="W383" s="4"/>
       <c r="X383" s="4"/>
     </row>
-    <row r="384" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -10921,7 +10821,7 @@
       <c r="W384" s="4"/>
       <c r="X384" s="4"/>
     </row>
-    <row r="385" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -10947,7 +10847,7 @@
       <c r="W385" s="4"/>
       <c r="X385" s="4"/>
     </row>
-    <row r="386" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -10973,7 +10873,7 @@
       <c r="W386" s="4"/>
       <c r="X386" s="4"/>
     </row>
-    <row r="387" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -10999,7 +10899,7 @@
       <c r="W387" s="4"/>
       <c r="X387" s="4"/>
     </row>
-    <row r="388" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -11025,7 +10925,7 @@
       <c r="W388" s="4"/>
       <c r="X388" s="4"/>
     </row>
-    <row r="389" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -11051,7 +10951,7 @@
       <c r="W389" s="4"/>
       <c r="X389" s="4"/>
     </row>
-    <row r="390" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -11077,7 +10977,7 @@
       <c r="W390" s="4"/>
       <c r="X390" s="4"/>
     </row>
-    <row r="391" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -11103,7 +11003,7 @@
       <c r="W391" s="4"/>
       <c r="X391" s="4"/>
     </row>
-    <row r="392" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -11129,7 +11029,7 @@
       <c r="W392" s="4"/>
       <c r="X392" s="4"/>
     </row>
-    <row r="393" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -11155,7 +11055,7 @@
       <c r="W393" s="4"/>
       <c r="X393" s="4"/>
     </row>
-    <row r="394" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -11181,7 +11081,7 @@
       <c r="W394" s="4"/>
       <c r="X394" s="4"/>
     </row>
-    <row r="395" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -11207,7 +11107,7 @@
       <c r="W395" s="4"/>
       <c r="X395" s="4"/>
     </row>
-    <row r="396" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -11233,7 +11133,7 @@
       <c r="W396" s="4"/>
       <c r="X396" s="4"/>
     </row>
-    <row r="397" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -11259,7 +11159,7 @@
       <c r="W397" s="4"/>
       <c r="X397" s="4"/>
     </row>
-    <row r="398" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -11285,7 +11185,7 @@
       <c r="W398" s="4"/>
       <c r="X398" s="4"/>
     </row>
-    <row r="399" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -11311,7 +11211,7 @@
       <c r="W399" s="4"/>
       <c r="X399" s="4"/>
     </row>
-    <row r="400" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -11337,7 +11237,7 @@
       <c r="W400" s="4"/>
       <c r="X400" s="4"/>
     </row>
-    <row r="401" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -11363,7 +11263,7 @@
       <c r="W401" s="4"/>
       <c r="X401" s="4"/>
     </row>
-    <row r="402" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -11389,7 +11289,7 @@
       <c r="W402" s="4"/>
       <c r="X402" s="4"/>
     </row>
-    <row r="403" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -11415,7 +11315,7 @@
       <c r="W403" s="4"/>
       <c r="X403" s="4"/>
     </row>
-    <row r="404" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -11441,7 +11341,7 @@
       <c r="W404" s="4"/>
       <c r="X404" s="4"/>
     </row>
-    <row r="405" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -11467,7 +11367,7 @@
       <c r="W405" s="4"/>
       <c r="X405" s="4"/>
     </row>
-    <row r="406" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -11493,7 +11393,7 @@
       <c r="W406" s="4"/>
       <c r="X406" s="4"/>
     </row>
-    <row r="407" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -11519,7 +11419,7 @@
       <c r="W407" s="4"/>
       <c r="X407" s="4"/>
     </row>
-    <row r="408" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -11545,7 +11445,7 @@
       <c r="W408" s="4"/>
       <c r="X408" s="4"/>
     </row>
-    <row r="409" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -11571,7 +11471,7 @@
       <c r="W409" s="4"/>
       <c r="X409" s="4"/>
     </row>
-    <row r="410" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -11597,7 +11497,7 @@
       <c r="W410" s="4"/>
       <c r="X410" s="4"/>
     </row>
-    <row r="411" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -11623,7 +11523,7 @@
       <c r="W411" s="4"/>
       <c r="X411" s="4"/>
     </row>
-    <row r="412" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -11649,7 +11549,7 @@
       <c r="W412" s="4"/>
       <c r="X412" s="4"/>
     </row>
-    <row r="413" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -11675,7 +11575,7 @@
       <c r="W413" s="4"/>
       <c r="X413" s="4"/>
     </row>
-    <row r="414" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -11701,7 +11601,7 @@
       <c r="W414" s="4"/>
       <c r="X414" s="4"/>
     </row>
-    <row r="415" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -11727,7 +11627,7 @@
       <c r="W415" s="4"/>
       <c r="X415" s="4"/>
     </row>
-    <row r="416" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -11753,7 +11653,7 @@
       <c r="W416" s="4"/>
       <c r="X416" s="4"/>
     </row>
-    <row r="417" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -11779,7 +11679,7 @@
       <c r="W417" s="4"/>
       <c r="X417" s="4"/>
     </row>
-    <row r="418" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -11805,7 +11705,7 @@
       <c r="W418" s="4"/>
       <c r="X418" s="4"/>
     </row>
-    <row r="419" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -11831,7 +11731,7 @@
       <c r="W419" s="4"/>
       <c r="X419" s="4"/>
     </row>
-    <row r="420" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -11857,7 +11757,7 @@
       <c r="W420" s="4"/>
       <c r="X420" s="4"/>
     </row>
-    <row r="421" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -11883,7 +11783,7 @@
       <c r="W421" s="4"/>
       <c r="X421" s="4"/>
     </row>
-    <row r="422" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -11909,7 +11809,7 @@
       <c r="W422" s="4"/>
       <c r="X422" s="4"/>
     </row>
-    <row r="423" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -11935,7 +11835,7 @@
       <c r="W423" s="4"/>
       <c r="X423" s="4"/>
     </row>
-    <row r="424" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -11961,7 +11861,7 @@
       <c r="W424" s="4"/>
       <c r="X424" s="4"/>
     </row>
-    <row r="425" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -11987,7 +11887,7 @@
       <c r="W425" s="4"/>
       <c r="X425" s="4"/>
     </row>
-    <row r="426" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -12013,7 +11913,7 @@
       <c r="W426" s="4"/>
       <c r="X426" s="4"/>
     </row>
-    <row r="427" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -12039,7 +11939,7 @@
       <c r="W427" s="4"/>
       <c r="X427" s="4"/>
     </row>
-    <row r="428" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -12065,7 +11965,7 @@
       <c r="W428" s="4"/>
       <c r="X428" s="4"/>
     </row>
-    <row r="429" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -12091,7 +11991,7 @@
       <c r="W429" s="4"/>
       <c r="X429" s="4"/>
     </row>
-    <row r="430" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -12117,7 +12017,7 @@
       <c r="W430" s="4"/>
       <c r="X430" s="4"/>
     </row>
-    <row r="431" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -12143,7 +12043,7 @@
       <c r="W431" s="4"/>
       <c r="X431" s="4"/>
     </row>
-    <row r="432" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -12169,7 +12069,7 @@
       <c r="W432" s="4"/>
       <c r="X432" s="4"/>
     </row>
-    <row r="433" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -12195,7 +12095,7 @@
       <c r="W433" s="4"/>
       <c r="X433" s="4"/>
     </row>
-    <row r="434" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -12221,7 +12121,7 @@
       <c r="W434" s="4"/>
       <c r="X434" s="4"/>
     </row>
-    <row r="435" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -12247,7 +12147,7 @@
       <c r="W435" s="4"/>
       <c r="X435" s="4"/>
     </row>
-    <row r="436" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -12273,7 +12173,7 @@
       <c r="W436" s="4"/>
       <c r="X436" s="4"/>
     </row>
-    <row r="437" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -12299,7 +12199,7 @@
       <c r="W437" s="4"/>
       <c r="X437" s="4"/>
     </row>
-    <row r="438" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -12325,7 +12225,7 @@
       <c r="W438" s="4"/>
       <c r="X438" s="4"/>
     </row>
-    <row r="439" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -12351,7 +12251,7 @@
       <c r="W439" s="4"/>
       <c r="X439" s="4"/>
     </row>
-    <row r="440" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -12377,7 +12277,7 @@
       <c r="W440" s="4"/>
       <c r="X440" s="4"/>
     </row>
-    <row r="441" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -12403,7 +12303,7 @@
       <c r="W441" s="4"/>
       <c r="X441" s="4"/>
     </row>
-    <row r="442" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -12429,7 +12329,7 @@
       <c r="W442" s="4"/>
       <c r="X442" s="4"/>
     </row>
-    <row r="443" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -12455,7 +12355,7 @@
       <c r="W443" s="4"/>
       <c r="X443" s="4"/>
     </row>
-    <row r="444" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -12481,7 +12381,7 @@
       <c r="W444" s="4"/>
       <c r="X444" s="4"/>
     </row>
-    <row r="445" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -12507,7 +12407,7 @@
       <c r="W445" s="4"/>
       <c r="X445" s="4"/>
     </row>
-    <row r="446" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -12533,7 +12433,7 @@
       <c r="W446" s="4"/>
       <c r="X446" s="4"/>
     </row>
-    <row r="447" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -12559,7 +12459,7 @@
       <c r="W447" s="4"/>
       <c r="X447" s="4"/>
     </row>
-    <row r="448" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -12585,7 +12485,7 @@
       <c r="W448" s="4"/>
       <c r="X448" s="4"/>
     </row>
-    <row r="449" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -12611,7 +12511,7 @@
       <c r="W449" s="4"/>
       <c r="X449" s="4"/>
     </row>
-    <row r="450" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -12637,7 +12537,7 @@
       <c r="W450" s="4"/>
       <c r="X450" s="4"/>
     </row>
-    <row r="451" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -12663,7 +12563,7 @@
       <c r="W451" s="4"/>
       <c r="X451" s="4"/>
     </row>
-    <row r="452" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -12689,7 +12589,7 @@
       <c r="W452" s="4"/>
       <c r="X452" s="4"/>
     </row>
-    <row r="453" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -12715,7 +12615,7 @@
       <c r="W453" s="4"/>
       <c r="X453" s="4"/>
     </row>
-    <row r="454" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -12741,7 +12641,7 @@
       <c r="W454" s="4"/>
       <c r="X454" s="4"/>
     </row>
-    <row r="455" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -12767,7 +12667,7 @@
       <c r="W455" s="4"/>
       <c r="X455" s="4"/>
     </row>
-    <row r="456" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -12793,7 +12693,7 @@
       <c r="W456" s="4"/>
       <c r="X456" s="4"/>
     </row>
-    <row r="457" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -12819,7 +12719,7 @@
       <c r="W457" s="4"/>
       <c r="X457" s="4"/>
     </row>
-    <row r="458" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -12845,7 +12745,7 @@
       <c r="W458" s="4"/>
       <c r="X458" s="4"/>
     </row>
-    <row r="459" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -12871,7 +12771,7 @@
       <c r="W459" s="4"/>
       <c r="X459" s="4"/>
     </row>
-    <row r="460" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -12897,7 +12797,7 @@
       <c r="W460" s="4"/>
       <c r="X460" s="4"/>
     </row>
-    <row r="461" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -12923,7 +12823,7 @@
       <c r="W461" s="4"/>
       <c r="X461" s="4"/>
     </row>
-    <row r="462" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -12949,7 +12849,7 @@
       <c r="W462" s="4"/>
       <c r="X462" s="4"/>
     </row>
-    <row r="463" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -12975,7 +12875,7 @@
       <c r="W463" s="4"/>
       <c r="X463" s="4"/>
     </row>
-    <row r="464" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -13001,7 +12901,7 @@
       <c r="W464" s="4"/>
       <c r="X464" s="4"/>
     </row>
-    <row r="465" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -13027,7 +12927,7 @@
       <c r="W465" s="4"/>
       <c r="X465" s="4"/>
     </row>
-    <row r="466" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -13053,7 +12953,7 @@
       <c r="W466" s="4"/>
       <c r="X466" s="4"/>
     </row>
-    <row r="467" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -13079,7 +12979,7 @@
       <c r="W467" s="4"/>
       <c r="X467" s="4"/>
     </row>
-    <row r="468" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -13105,7 +13005,7 @@
       <c r="W468" s="4"/>
       <c r="X468" s="4"/>
     </row>
-    <row r="469" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -13131,7 +13031,7 @@
       <c r="W469" s="4"/>
       <c r="X469" s="4"/>
     </row>
-    <row r="470" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -13157,7 +13057,7 @@
       <c r="W470" s="4"/>
       <c r="X470" s="4"/>
     </row>
-    <row r="471" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -13183,7 +13083,7 @@
       <c r="W471" s="4"/>
       <c r="X471" s="4"/>
     </row>
-    <row r="472" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -13209,7 +13109,7 @@
       <c r="W472" s="4"/>
       <c r="X472" s="4"/>
     </row>
-    <row r="473" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -13235,7 +13135,7 @@
       <c r="W473" s="4"/>
       <c r="X473" s="4"/>
     </row>
-    <row r="474" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -13261,7 +13161,7 @@
       <c r="W474" s="4"/>
       <c r="X474" s="4"/>
     </row>
-    <row r="475" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -13287,7 +13187,7 @@
       <c r="W475" s="4"/>
       <c r="X475" s="4"/>
     </row>
-    <row r="476" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -13313,7 +13213,7 @@
       <c r="W476" s="4"/>
       <c r="X476" s="4"/>
     </row>
-    <row r="477" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -13339,7 +13239,7 @@
       <c r="W477" s="4"/>
       <c r="X477" s="4"/>
     </row>
-    <row r="478" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -13365,7 +13265,7 @@
       <c r="W478" s="4"/>
       <c r="X478" s="4"/>
     </row>
-    <row r="479" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -13391,7 +13291,7 @@
       <c r="W479" s="4"/>
       <c r="X479" s="4"/>
     </row>
-    <row r="480" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -13417,7 +13317,7 @@
       <c r="W480" s="4"/>
       <c r="X480" s="4"/>
     </row>
-    <row r="481" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -13443,7 +13343,7 @@
       <c r="W481" s="4"/>
       <c r="X481" s="4"/>
     </row>
-    <row r="482" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -13469,7 +13369,7 @@
       <c r="W482" s="4"/>
       <c r="X482" s="4"/>
     </row>
-    <row r="483" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -13495,7 +13395,7 @@
       <c r="W483" s="4"/>
       <c r="X483" s="4"/>
     </row>
-    <row r="484" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -13521,7 +13421,7 @@
       <c r="W484" s="4"/>
       <c r="X484" s="4"/>
     </row>
-    <row r="485" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -13547,7 +13447,7 @@
       <c r="W485" s="4"/>
       <c r="X485" s="4"/>
     </row>
-    <row r="486" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -13573,7 +13473,7 @@
       <c r="W486" s="4"/>
       <c r="X486" s="4"/>
     </row>
-    <row r="487" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -13599,7 +13499,7 @@
       <c r="W487" s="4"/>
       <c r="X487" s="4"/>
     </row>
-    <row r="488" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -13625,7 +13525,7 @@
       <c r="W488" s="4"/>
       <c r="X488" s="4"/>
     </row>
-    <row r="489" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -13651,7 +13551,7 @@
       <c r="W489" s="4"/>
       <c r="X489" s="4"/>
     </row>
-    <row r="490" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -13677,7 +13577,7 @@
       <c r="W490" s="4"/>
       <c r="X490" s="4"/>
     </row>
-    <row r="491" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -13703,7 +13603,7 @@
       <c r="W491" s="4"/>
       <c r="X491" s="4"/>
     </row>
-    <row r="492" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -13729,7 +13629,7 @@
       <c r="W492" s="4"/>
       <c r="X492" s="4"/>
     </row>
-    <row r="493" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -13755,7 +13655,7 @@
       <c r="W493" s="4"/>
       <c r="X493" s="4"/>
     </row>
-    <row r="494" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -13781,7 +13681,7 @@
       <c r="W494" s="4"/>
       <c r="X494" s="4"/>
     </row>
-    <row r="495" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -13807,7 +13707,7 @@
       <c r="W495" s="4"/>
       <c r="X495" s="4"/>
     </row>
-    <row r="496" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -13833,7 +13733,7 @@
       <c r="W496" s="4"/>
       <c r="X496" s="4"/>
     </row>
-    <row r="497" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -13859,7 +13759,7 @@
       <c r="W497" s="4"/>
       <c r="X497" s="4"/>
     </row>
-    <row r="498" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -13885,7 +13785,7 @@
       <c r="W498" s="4"/>
       <c r="X498" s="4"/>
     </row>
-    <row r="499" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -13911,7 +13811,7 @@
       <c r="W499" s="4"/>
       <c r="X499" s="4"/>
     </row>
-    <row r="500" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -13937,7 +13837,7 @@
       <c r="W500" s="4"/>
       <c r="X500" s="4"/>
     </row>
-    <row r="501" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -13963,7 +13863,7 @@
       <c r="W501" s="4"/>
       <c r="X501" s="4"/>
     </row>
-    <row r="502" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -13989,7 +13889,7 @@
       <c r="W502" s="4"/>
       <c r="X502" s="4"/>
     </row>
-    <row r="503" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -14015,7 +13915,7 @@
       <c r="W503" s="4"/>
       <c r="X503" s="4"/>
     </row>
-    <row r="504" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -14041,7 +13941,7 @@
       <c r="W504" s="4"/>
       <c r="X504" s="4"/>
     </row>
-    <row r="505" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -14067,7 +13967,7 @@
       <c r="W505" s="4"/>
       <c r="X505" s="4"/>
     </row>
-    <row r="506" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -14093,7 +13993,7 @@
       <c r="W506" s="4"/>
       <c r="X506" s="4"/>
     </row>
-    <row r="507" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -14119,7 +14019,7 @@
       <c r="W507" s="4"/>
       <c r="X507" s="4"/>
     </row>
-    <row r="508" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -14145,7 +14045,7 @@
       <c r="W508" s="4"/>
       <c r="X508" s="4"/>
     </row>
-    <row r="509" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -14171,7 +14071,7 @@
       <c r="W509" s="4"/>
       <c r="X509" s="4"/>
     </row>
-    <row r="510" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -14197,7 +14097,7 @@
       <c r="W510" s="4"/>
       <c r="X510" s="4"/>
     </row>
-    <row r="511" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -14223,7 +14123,7 @@
       <c r="W511" s="4"/>
       <c r="X511" s="4"/>
     </row>
-    <row r="512" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -14249,7 +14149,7 @@
       <c r="W512" s="4"/>
       <c r="X512" s="4"/>
     </row>
-    <row r="513" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -14275,7 +14175,7 @@
       <c r="W513" s="4"/>
       <c r="X513" s="4"/>
     </row>
-    <row r="514" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -14301,7 +14201,7 @@
       <c r="W514" s="4"/>
       <c r="X514" s="4"/>
     </row>
-    <row r="515" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -14327,7 +14227,7 @@
       <c r="W515" s="4"/>
       <c r="X515" s="4"/>
     </row>
-    <row r="516" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -14353,7 +14253,7 @@
       <c r="W516" s="4"/>
       <c r="X516" s="4"/>
     </row>
-    <row r="517" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -14379,7 +14279,7 @@
       <c r="W517" s="4"/>
       <c r="X517" s="4"/>
     </row>
-    <row r="518" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -14405,7 +14305,7 @@
       <c r="W518" s="4"/>
       <c r="X518" s="4"/>
     </row>
-    <row r="519" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -14431,7 +14331,7 @@
       <c r="W519" s="4"/>
       <c r="X519" s="4"/>
     </row>
-    <row r="520" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -14457,7 +14357,7 @@
       <c r="W520" s="4"/>
       <c r="X520" s="4"/>
     </row>
-    <row r="521" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -14483,7 +14383,7 @@
       <c r="W521" s="4"/>
       <c r="X521" s="4"/>
     </row>
-    <row r="522" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -14509,7 +14409,7 @@
       <c r="W522" s="4"/>
       <c r="X522" s="4"/>
     </row>
-    <row r="523" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -14535,7 +14435,7 @@
       <c r="W523" s="4"/>
       <c r="X523" s="4"/>
     </row>
-    <row r="524" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -14561,7 +14461,7 @@
       <c r="W524" s="4"/>
       <c r="X524" s="4"/>
     </row>
-    <row r="525" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -14587,7 +14487,7 @@
       <c r="W525" s="4"/>
       <c r="X525" s="4"/>
     </row>
-    <row r="526" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -14613,7 +14513,7 @@
       <c r="W526" s="4"/>
       <c r="X526" s="4"/>
     </row>
-    <row r="527" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -14639,7 +14539,7 @@
       <c r="W527" s="4"/>
       <c r="X527" s="4"/>
     </row>
-    <row r="528" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -14665,7 +14565,7 @@
       <c r="W528" s="4"/>
       <c r="X528" s="4"/>
     </row>
-    <row r="529" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -14691,7 +14591,7 @@
       <c r="W529" s="4"/>
       <c r="X529" s="4"/>
     </row>
-    <row r="530" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -14717,7 +14617,7 @@
       <c r="W530" s="4"/>
       <c r="X530" s="4"/>
     </row>
-    <row r="531" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -14743,7 +14643,7 @@
       <c r="W531" s="4"/>
       <c r="X531" s="4"/>
     </row>
-    <row r="532" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -14769,7 +14669,7 @@
       <c r="W532" s="4"/>
       <c r="X532" s="4"/>
     </row>
-    <row r="533" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -14795,7 +14695,7 @@
       <c r="W533" s="4"/>
       <c r="X533" s="4"/>
     </row>
-    <row r="534" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -14821,7 +14721,7 @@
       <c r="W534" s="4"/>
       <c r="X534" s="4"/>
     </row>
-    <row r="535" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -14847,7 +14747,7 @@
       <c r="W535" s="4"/>
       <c r="X535" s="4"/>
     </row>
-    <row r="536" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -14873,7 +14773,7 @@
       <c r="W536" s="4"/>
       <c r="X536" s="4"/>
     </row>
-    <row r="537" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -14899,7 +14799,7 @@
       <c r="W537" s="4"/>
       <c r="X537" s="4"/>
     </row>
-    <row r="538" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -14925,7 +14825,7 @@
       <c r="W538" s="4"/>
       <c r="X538" s="4"/>
     </row>
-    <row r="539" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -14951,7 +14851,7 @@
       <c r="W539" s="4"/>
       <c r="X539" s="4"/>
     </row>
-    <row r="540" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -14977,7 +14877,7 @@
       <c r="W540" s="4"/>
       <c r="X540" s="4"/>
     </row>
-    <row r="541" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -15003,7 +14903,7 @@
       <c r="W541" s="4"/>
       <c r="X541" s="4"/>
     </row>
-    <row r="542" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -15029,7 +14929,7 @@
       <c r="W542" s="4"/>
       <c r="X542" s="4"/>
     </row>
-    <row r="543" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -15055,7 +14955,7 @@
       <c r="W543" s="4"/>
       <c r="X543" s="4"/>
     </row>
-    <row r="544" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -15081,7 +14981,7 @@
       <c r="W544" s="4"/>
       <c r="X544" s="4"/>
     </row>
-    <row r="545" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -15107,7 +15007,7 @@
       <c r="W545" s="4"/>
       <c r="X545" s="4"/>
     </row>
-    <row r="546" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -15133,7 +15033,7 @@
       <c r="W546" s="4"/>
       <c r="X546" s="4"/>
     </row>
-    <row r="547" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -15159,7 +15059,7 @@
       <c r="W547" s="4"/>
       <c r="X547" s="4"/>
     </row>
-    <row r="548" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -15185,7 +15085,7 @@
       <c r="W548" s="4"/>
       <c r="X548" s="4"/>
     </row>
-    <row r="549" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -15211,7 +15111,7 @@
       <c r="W549" s="4"/>
       <c r="X549" s="4"/>
     </row>
-    <row r="550" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -15237,7 +15137,7 @@
       <c r="W550" s="4"/>
       <c r="X550" s="4"/>
     </row>
-    <row r="551" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -15263,7 +15163,7 @@
       <c r="W551" s="4"/>
       <c r="X551" s="4"/>
     </row>
-    <row r="552" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -15289,7 +15189,7 @@
       <c r="W552" s="4"/>
       <c r="X552" s="4"/>
     </row>
-    <row r="553" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -15315,7 +15215,7 @@
       <c r="W553" s="4"/>
       <c r="X553" s="4"/>
     </row>
-    <row r="554" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -15341,7 +15241,7 @@
       <c r="W554" s="4"/>
       <c r="X554" s="4"/>
     </row>
-    <row r="555" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -15367,7 +15267,7 @@
       <c r="W555" s="4"/>
       <c r="X555" s="4"/>
     </row>
-    <row r="556" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -15393,7 +15293,7 @@
       <c r="W556" s="4"/>
       <c r="X556" s="4"/>
     </row>
-    <row r="557" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -15419,7 +15319,7 @@
       <c r="W557" s="4"/>
       <c r="X557" s="4"/>
     </row>
-    <row r="558" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -15445,7 +15345,7 @@
       <c r="W558" s="4"/>
       <c r="X558" s="4"/>
     </row>
-    <row r="559" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -15471,7 +15371,7 @@
       <c r="W559" s="4"/>
       <c r="X559" s="4"/>
     </row>
-    <row r="560" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -15497,7 +15397,7 @@
       <c r="W560" s="4"/>
       <c r="X560" s="4"/>
     </row>
-    <row r="561" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -15523,7 +15423,7 @@
       <c r="W561" s="4"/>
       <c r="X561" s="4"/>
     </row>
-    <row r="562" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -15549,7 +15449,7 @@
       <c r="W562" s="4"/>
       <c r="X562" s="4"/>
     </row>
-    <row r="563" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -15575,7 +15475,7 @@
       <c r="W563" s="4"/>
       <c r="X563" s="4"/>
     </row>
-    <row r="564" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -15601,7 +15501,7 @@
       <c r="W564" s="4"/>
       <c r="X564" s="4"/>
     </row>
-    <row r="565" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -15627,7 +15527,7 @@
       <c r="W565" s="4"/>
       <c r="X565" s="4"/>
     </row>
-    <row r="566" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -15653,7 +15553,7 @@
       <c r="W566" s="4"/>
       <c r="X566" s="4"/>
     </row>
-    <row r="567" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -15679,7 +15579,7 @@
       <c r="W567" s="4"/>
       <c r="X567" s="4"/>
     </row>
-    <row r="568" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -15705,7 +15605,7 @@
       <c r="W568" s="4"/>
       <c r="X568" s="4"/>
     </row>
-    <row r="569" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -15731,7 +15631,7 @@
       <c r="W569" s="4"/>
       <c r="X569" s="4"/>
     </row>
-    <row r="570" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -15757,7 +15657,7 @@
       <c r="W570" s="4"/>
       <c r="X570" s="4"/>
     </row>
-    <row r="571" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -15783,7 +15683,7 @@
       <c r="W571" s="4"/>
       <c r="X571" s="4"/>
     </row>
-    <row r="572" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -15809,7 +15709,7 @@
       <c r="W572" s="4"/>
       <c r="X572" s="4"/>
     </row>
-    <row r="573" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -15835,7 +15735,7 @@
       <c r="W573" s="4"/>
       <c r="X573" s="4"/>
     </row>
-    <row r="574" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -15861,874 +15761,900 @@
       <c r="W574" s="4"/>
       <c r="X574" s="4"/>
     </row>
-    <row r="575" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1"/>
-      <c r="B575" s="1"/>
-      <c r="C575" s="67"/>
-      <c r="D575" s="67"/>
-      <c r="E575" s="68"/>
-    </row>
-    <row r="576" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="A575" s="4"/>
+      <c r="B575" s="4"/>
+      <c r="C575" s="4"/>
+      <c r="D575" s="4"/>
+      <c r="E575" s="4"/>
+      <c r="F575" s="4"/>
+      <c r="G575" s="4"/>
+      <c r="H575" s="4"/>
+      <c r="I575" s="4"/>
+      <c r="J575" s="4"/>
+      <c r="K575" s="4"/>
+      <c r="L575" s="4"/>
+      <c r="M575" s="4"/>
+      <c r="N575" s="4"/>
+      <c r="O575" s="4"/>
+      <c r="P575" s="4"/>
+      <c r="Q575" s="4"/>
+      <c r="R575" s="4"/>
+      <c r="S575" s="4"/>
+      <c r="T575" s="4"/>
+      <c r="U575" s="4"/>
+      <c r="V575" s="4"/>
+      <c r="W575" s="4"/>
+      <c r="X575" s="4"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
-      <c r="C576" s="67"/>
-      <c r="D576" s="67"/>
-      <c r="E576" s="68"/>
-    </row>
-    <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C576" s="3"/>
+      <c r="D576" s="3"/>
+      <c r="E576" s="4"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
-      <c r="C577" s="67"/>
-      <c r="D577" s="67"/>
-      <c r="E577" s="68"/>
-    </row>
-    <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C577" s="3"/>
+      <c r="D577" s="3"/>
+      <c r="E577" s="4"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
-      <c r="C578" s="67"/>
-      <c r="D578" s="67"/>
-      <c r="E578" s="68"/>
-    </row>
-    <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C578" s="3"/>
+      <c r="D578" s="3"/>
+      <c r="E578" s="4"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
-      <c r="C579" s="67"/>
-      <c r="D579" s="67"/>
-      <c r="E579" s="68"/>
-    </row>
-    <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C579" s="3"/>
+      <c r="D579" s="3"/>
+      <c r="E579" s="4"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
-      <c r="C580" s="67"/>
-      <c r="D580" s="67"/>
-      <c r="E580" s="68"/>
-    </row>
-    <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C580" s="3"/>
+      <c r="D580" s="3"/>
+      <c r="E580" s="4"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
-      <c r="C581" s="67"/>
-      <c r="D581" s="67"/>
-      <c r="E581" s="68"/>
-    </row>
-    <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C581" s="3"/>
+      <c r="D581" s="3"/>
+      <c r="E581" s="4"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
-      <c r="C582" s="67"/>
-      <c r="D582" s="67"/>
-      <c r="E582" s="68"/>
-    </row>
-    <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C582" s="3"/>
+      <c r="D582" s="3"/>
+      <c r="E582" s="4"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
-      <c r="C583" s="67"/>
-      <c r="D583" s="67"/>
-      <c r="E583" s="68"/>
-    </row>
-    <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C583" s="3"/>
+      <c r="D583" s="3"/>
+      <c r="E583" s="4"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
-      <c r="C584" s="67"/>
-      <c r="D584" s="67"/>
-      <c r="E584" s="68"/>
-    </row>
-    <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C584" s="3"/>
+      <c r="D584" s="3"/>
+      <c r="E584" s="4"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
-      <c r="C585" s="67"/>
-      <c r="D585" s="67"/>
-      <c r="E585" s="68"/>
-    </row>
-    <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C585" s="3"/>
+      <c r="D585" s="3"/>
+      <c r="E585" s="4"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
-      <c r="C586" s="67"/>
-      <c r="D586" s="67"/>
-      <c r="E586" s="68"/>
-    </row>
-    <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C586" s="3"/>
+      <c r="D586" s="3"/>
+      <c r="E586" s="4"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
-      <c r="C587" s="67"/>
-      <c r="D587" s="67"/>
-      <c r="E587" s="68"/>
-    </row>
-    <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C587" s="3"/>
+      <c r="D587" s="3"/>
+      <c r="E587" s="4"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
-      <c r="C588" s="67"/>
-      <c r="D588" s="67"/>
-      <c r="E588" s="68"/>
-    </row>
-    <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C588" s="3"/>
+      <c r="D588" s="3"/>
+      <c r="E588" s="4"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
-      <c r="C589" s="67"/>
-      <c r="D589" s="67"/>
-      <c r="E589" s="68"/>
-    </row>
-    <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C589" s="3"/>
+      <c r="D589" s="3"/>
+      <c r="E589" s="4"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
-      <c r="C590" s="67"/>
-      <c r="D590" s="67"/>
-      <c r="E590" s="68"/>
-    </row>
-    <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C590" s="3"/>
+      <c r="D590" s="3"/>
+      <c r="E590" s="4"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
-      <c r="C591" s="67"/>
-      <c r="D591" s="67"/>
-      <c r="E591" s="68"/>
-    </row>
-    <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C591" s="3"/>
+      <c r="D591" s="3"/>
+      <c r="E591" s="4"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
-      <c r="C592" s="67"/>
-      <c r="D592" s="67"/>
-      <c r="E592" s="68"/>
-    </row>
-    <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C592" s="3"/>
+      <c r="D592" s="3"/>
+      <c r="E592" s="4"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
-      <c r="C593" s="67"/>
-      <c r="D593" s="67"/>
-      <c r="E593" s="68"/>
-    </row>
-    <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C593" s="3"/>
+      <c r="D593" s="3"/>
+      <c r="E593" s="4"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
-      <c r="C594" s="67"/>
-      <c r="D594" s="67"/>
-      <c r="E594" s="68"/>
-    </row>
-    <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C594" s="3"/>
+      <c r="D594" s="3"/>
+      <c r="E594" s="4"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
-      <c r="C595" s="67"/>
-      <c r="D595" s="67"/>
-      <c r="E595" s="68"/>
-    </row>
-    <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C595" s="3"/>
+      <c r="D595" s="3"/>
+      <c r="E595" s="4"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
-      <c r="C596" s="67"/>
-      <c r="D596" s="67"/>
-      <c r="E596" s="68"/>
-    </row>
-    <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C596" s="3"/>
+      <c r="D596" s="3"/>
+      <c r="E596" s="4"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
-      <c r="C597" s="67"/>
-      <c r="D597" s="67"/>
-      <c r="E597" s="68"/>
-    </row>
-    <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C597" s="3"/>
+      <c r="D597" s="3"/>
+      <c r="E597" s="4"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
-      <c r="C598" s="67"/>
-      <c r="D598" s="67"/>
-      <c r="E598" s="68"/>
-    </row>
-    <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C598" s="3"/>
+      <c r="D598" s="3"/>
+      <c r="E598" s="4"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
-      <c r="C599" s="67"/>
-      <c r="D599" s="67"/>
-      <c r="E599" s="68"/>
-    </row>
-    <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C599" s="3"/>
+      <c r="D599" s="3"/>
+      <c r="E599" s="4"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
-      <c r="C600" s="67"/>
-      <c r="D600" s="67"/>
-      <c r="E600" s="68"/>
-    </row>
-    <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C600" s="3"/>
+      <c r="D600" s="3"/>
+      <c r="E600" s="4"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
-      <c r="C601" s="67"/>
-      <c r="D601" s="67"/>
-      <c r="E601" s="68"/>
-    </row>
-    <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C601" s="3"/>
+      <c r="D601" s="3"/>
+      <c r="E601" s="4"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
-      <c r="C602" s="67"/>
-      <c r="D602" s="67"/>
-      <c r="E602" s="68"/>
-    </row>
-    <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C602" s="3"/>
+      <c r="D602" s="3"/>
+      <c r="E602" s="4"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
-      <c r="C603" s="67"/>
-      <c r="D603" s="67"/>
-      <c r="E603" s="68"/>
-    </row>
-    <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C603" s="3"/>
+      <c r="D603" s="3"/>
+      <c r="E603" s="4"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
-      <c r="C604" s="67"/>
-      <c r="D604" s="67"/>
-      <c r="E604" s="68"/>
-    </row>
-    <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C604" s="3"/>
+      <c r="D604" s="3"/>
+      <c r="E604" s="4"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
-      <c r="C605" s="67"/>
-      <c r="D605" s="67"/>
-      <c r="E605" s="68"/>
-    </row>
-    <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C605" s="3"/>
+      <c r="D605" s="3"/>
+      <c r="E605" s="4"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
-      <c r="C606" s="67"/>
-      <c r="D606" s="67"/>
-      <c r="E606" s="68"/>
-    </row>
-    <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C606" s="3"/>
+      <c r="D606" s="3"/>
+      <c r="E606" s="4"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
-      <c r="C607" s="67"/>
-      <c r="D607" s="67"/>
-      <c r="E607" s="68"/>
-    </row>
-    <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C607" s="3"/>
+      <c r="D607" s="3"/>
+      <c r="E607" s="4"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
-      <c r="C608" s="67"/>
-      <c r="D608" s="67"/>
-      <c r="E608" s="68"/>
-    </row>
-    <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C608" s="3"/>
+      <c r="D608" s="3"/>
+      <c r="E608" s="4"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
-      <c r="C609" s="67"/>
-      <c r="D609" s="67"/>
-      <c r="E609" s="68"/>
-    </row>
-    <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C609" s="3"/>
+      <c r="D609" s="3"/>
+      <c r="E609" s="4"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
-      <c r="C610" s="67"/>
-      <c r="D610" s="67"/>
-      <c r="E610" s="68"/>
-    </row>
-    <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C610" s="3"/>
+      <c r="D610" s="3"/>
+      <c r="E610" s="4"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
-      <c r="C611" s="67"/>
-      <c r="D611" s="67"/>
-      <c r="E611" s="68"/>
-    </row>
-    <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C611" s="3"/>
+      <c r="D611" s="3"/>
+      <c r="E611" s="4"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
-      <c r="C612" s="67"/>
-      <c r="D612" s="67"/>
-      <c r="E612" s="68"/>
-    </row>
-    <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C612" s="3"/>
+      <c r="D612" s="3"/>
+      <c r="E612" s="4"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
-      <c r="C613" s="67"/>
-      <c r="D613" s="67"/>
-      <c r="E613" s="68"/>
-    </row>
-    <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C613" s="3"/>
+      <c r="D613" s="3"/>
+      <c r="E613" s="4"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
-      <c r="C614" s="67"/>
-      <c r="D614" s="67"/>
-      <c r="E614" s="68"/>
-    </row>
-    <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C614" s="3"/>
+      <c r="D614" s="3"/>
+      <c r="E614" s="4"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
-      <c r="C615" s="67"/>
-      <c r="D615" s="67"/>
-      <c r="E615" s="68"/>
-    </row>
-    <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C615" s="3"/>
+      <c r="D615" s="3"/>
+      <c r="E615" s="4"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
-      <c r="C616" s="67"/>
-      <c r="D616" s="67"/>
-      <c r="E616" s="68"/>
-    </row>
-    <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C616" s="3"/>
+      <c r="D616" s="3"/>
+      <c r="E616" s="4"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
-      <c r="C617" s="67"/>
-      <c r="D617" s="67"/>
-      <c r="E617" s="68"/>
-    </row>
-    <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C617" s="3"/>
+      <c r="D617" s="3"/>
+      <c r="E617" s="4"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
-      <c r="C618" s="67"/>
-      <c r="D618" s="67"/>
-      <c r="E618" s="68"/>
-    </row>
-    <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C618" s="3"/>
+      <c r="D618" s="3"/>
+      <c r="E618" s="4"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
-      <c r="C619" s="67"/>
-      <c r="D619" s="67"/>
-      <c r="E619" s="68"/>
-    </row>
-    <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C619" s="3"/>
+      <c r="D619" s="3"/>
+      <c r="E619" s="4"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
-      <c r="C620" s="67"/>
-      <c r="D620" s="67"/>
-      <c r="E620" s="68"/>
-    </row>
-    <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C620" s="3"/>
+      <c r="D620" s="3"/>
+      <c r="E620" s="4"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
-      <c r="C621" s="67"/>
-      <c r="D621" s="67"/>
-      <c r="E621" s="68"/>
-    </row>
-    <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C621" s="3"/>
+      <c r="D621" s="3"/>
+      <c r="E621" s="4"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
-      <c r="C622" s="67"/>
-      <c r="D622" s="67"/>
-      <c r="E622" s="68"/>
-    </row>
-    <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C622" s="3"/>
+      <c r="D622" s="3"/>
+      <c r="E622" s="4"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
-      <c r="C623" s="67"/>
-      <c r="D623" s="67"/>
-      <c r="E623" s="68"/>
-    </row>
-    <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C623" s="3"/>
+      <c r="D623" s="3"/>
+      <c r="E623" s="4"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
-      <c r="C624" s="67"/>
-      <c r="D624" s="67"/>
-      <c r="E624" s="68"/>
-    </row>
-    <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C624" s="3"/>
+      <c r="D624" s="3"/>
+      <c r="E624" s="4"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
-      <c r="C625" s="67"/>
-      <c r="D625" s="67"/>
-      <c r="E625" s="68"/>
-    </row>
-    <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C625" s="3"/>
+      <c r="D625" s="3"/>
+      <c r="E625" s="4"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
-      <c r="C626" s="67"/>
-      <c r="D626" s="67"/>
-      <c r="E626" s="68"/>
-    </row>
-    <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C626" s="3"/>
+      <c r="D626" s="3"/>
+      <c r="E626" s="4"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
-      <c r="C627" s="67"/>
-      <c r="D627" s="67"/>
-      <c r="E627" s="68"/>
-    </row>
-    <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C627" s="3"/>
+      <c r="D627" s="3"/>
+      <c r="E627" s="4"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
-      <c r="C628" s="67"/>
-      <c r="D628" s="67"/>
-      <c r="E628" s="68"/>
-    </row>
-    <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C628" s="3"/>
+      <c r="D628" s="3"/>
+      <c r="E628" s="4"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
-      <c r="C629" s="67"/>
-      <c r="D629" s="67"/>
-      <c r="E629" s="68"/>
-    </row>
-    <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C629" s="3"/>
+      <c r="D629" s="3"/>
+      <c r="E629" s="4"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
-      <c r="C630" s="67"/>
-      <c r="D630" s="67"/>
-      <c r="E630" s="68"/>
-    </row>
-    <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C630" s="3"/>
+      <c r="D630" s="3"/>
+      <c r="E630" s="4"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
-      <c r="C631" s="67"/>
-      <c r="D631" s="67"/>
-      <c r="E631" s="68"/>
-    </row>
-    <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C631" s="3"/>
+      <c r="D631" s="3"/>
+      <c r="E631" s="4"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
-      <c r="C632" s="67"/>
-      <c r="D632" s="67"/>
-      <c r="E632" s="68"/>
-    </row>
-    <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C632" s="3"/>
+      <c r="D632" s="3"/>
+      <c r="E632" s="4"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
-      <c r="C633" s="67"/>
-      <c r="D633" s="67"/>
-      <c r="E633" s="68"/>
-    </row>
-    <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C633" s="3"/>
+      <c r="D633" s="3"/>
+      <c r="E633" s="4"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
-      <c r="C634" s="67"/>
-      <c r="D634" s="67"/>
-      <c r="E634" s="68"/>
-    </row>
-    <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C634" s="3"/>
+      <c r="D634" s="3"/>
+      <c r="E634" s="4"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
-      <c r="C635" s="67"/>
-      <c r="D635" s="67"/>
-      <c r="E635" s="68"/>
-    </row>
-    <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C635" s="3"/>
+      <c r="D635" s="3"/>
+      <c r="E635" s="4"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
-      <c r="C636" s="67"/>
-      <c r="D636" s="67"/>
-      <c r="E636" s="68"/>
-    </row>
-    <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C636" s="3"/>
+      <c r="D636" s="3"/>
+      <c r="E636" s="4"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
-      <c r="C637" s="67"/>
-      <c r="D637" s="67"/>
-      <c r="E637" s="68"/>
-    </row>
-    <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C637" s="3"/>
+      <c r="D637" s="3"/>
+      <c r="E637" s="4"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
-      <c r="C638" s="67"/>
-      <c r="D638" s="67"/>
-      <c r="E638" s="68"/>
-    </row>
-    <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C638" s="3"/>
+      <c r="D638" s="3"/>
+      <c r="E638" s="4"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
-      <c r="C639" s="67"/>
-      <c r="D639" s="67"/>
-      <c r="E639" s="68"/>
-    </row>
-    <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C639" s="3"/>
+      <c r="D639" s="3"/>
+      <c r="E639" s="4"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
-      <c r="C640" s="67"/>
-      <c r="D640" s="67"/>
-      <c r="E640" s="68"/>
-    </row>
-    <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C640" s="3"/>
+      <c r="D640" s="3"/>
+      <c r="E640" s="4"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
-      <c r="C641" s="67"/>
-      <c r="D641" s="67"/>
-      <c r="E641" s="68"/>
-    </row>
-    <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C641" s="3"/>
+      <c r="D641" s="3"/>
+      <c r="E641" s="4"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
-      <c r="C642" s="67"/>
-      <c r="D642" s="67"/>
-      <c r="E642" s="68"/>
-    </row>
-    <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C642" s="3"/>
+      <c r="D642" s="3"/>
+      <c r="E642" s="4"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
-      <c r="C643" s="67"/>
-      <c r="D643" s="67"/>
-      <c r="E643" s="68"/>
-    </row>
-    <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C643" s="3"/>
+      <c r="D643" s="3"/>
+      <c r="E643" s="4"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
-      <c r="C644" s="67"/>
-      <c r="D644" s="67"/>
-      <c r="E644" s="68"/>
-    </row>
-    <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C644" s="3"/>
+      <c r="D644" s="3"/>
+      <c r="E644" s="4"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
-      <c r="C645" s="67"/>
-      <c r="D645" s="67"/>
-      <c r="E645" s="68"/>
-    </row>
-    <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C645" s="3"/>
+      <c r="D645" s="3"/>
+      <c r="E645" s="4"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
-      <c r="C646" s="67"/>
-      <c r="D646" s="67"/>
-      <c r="E646" s="68"/>
-    </row>
-    <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C646" s="3"/>
+      <c r="D646" s="3"/>
+      <c r="E646" s="4"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
-      <c r="C647" s="67"/>
-      <c r="D647" s="67"/>
-      <c r="E647" s="68"/>
-    </row>
-    <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C647" s="3"/>
+      <c r="D647" s="3"/>
+      <c r="E647" s="4"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
-      <c r="C648" s="67"/>
-      <c r="D648" s="67"/>
-      <c r="E648" s="68"/>
-    </row>
-    <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C648" s="3"/>
+      <c r="D648" s="3"/>
+      <c r="E648" s="4"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
-      <c r="C649" s="67"/>
-      <c r="D649" s="67"/>
-      <c r="E649" s="68"/>
-    </row>
-    <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C649" s="3"/>
+      <c r="D649" s="3"/>
+      <c r="E649" s="4"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
-      <c r="C650" s="67"/>
-      <c r="D650" s="67"/>
-      <c r="E650" s="68"/>
-    </row>
-    <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C650" s="3"/>
+      <c r="D650" s="3"/>
+      <c r="E650" s="4"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
-      <c r="C651" s="67"/>
-      <c r="D651" s="67"/>
-      <c r="E651" s="68"/>
-    </row>
-    <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C651" s="3"/>
+      <c r="D651" s="3"/>
+      <c r="E651" s="4"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
-      <c r="C652" s="67"/>
-      <c r="D652" s="67"/>
-      <c r="E652" s="68"/>
-    </row>
-    <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C652" s="3"/>
+      <c r="D652" s="3"/>
+      <c r="E652" s="4"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
-      <c r="C653" s="67"/>
-      <c r="D653" s="67"/>
-      <c r="E653" s="68"/>
-    </row>
-    <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C653" s="3"/>
+      <c r="D653" s="3"/>
+      <c r="E653" s="4"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
-      <c r="C654" s="67"/>
-      <c r="D654" s="67"/>
-      <c r="E654" s="68"/>
-    </row>
-    <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C654" s="3"/>
+      <c r="D654" s="3"/>
+      <c r="E654" s="4"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
-      <c r="C655" s="67"/>
-      <c r="D655" s="67"/>
-      <c r="E655" s="68"/>
-    </row>
-    <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C655" s="3"/>
+      <c r="D655" s="3"/>
+      <c r="E655" s="4"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
-      <c r="C656" s="67"/>
-      <c r="D656" s="67"/>
-      <c r="E656" s="68"/>
-    </row>
-    <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C656" s="3"/>
+      <c r="D656" s="3"/>
+      <c r="E656" s="4"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
-      <c r="C657" s="67"/>
-      <c r="D657" s="67"/>
-      <c r="E657" s="68"/>
-    </row>
-    <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C657" s="3"/>
+      <c r="D657" s="3"/>
+      <c r="E657" s="4"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
-      <c r="C658" s="67"/>
-      <c r="D658" s="67"/>
-      <c r="E658" s="68"/>
-    </row>
-    <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C658" s="3"/>
+      <c r="D658" s="3"/>
+      <c r="E658" s="4"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
-      <c r="C659" s="67"/>
-      <c r="D659" s="67"/>
-      <c r="E659" s="68"/>
-    </row>
-    <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C659" s="3"/>
+      <c r="D659" s="3"/>
+      <c r="E659" s="4"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
-      <c r="C660" s="67"/>
-      <c r="D660" s="67"/>
-      <c r="E660" s="68"/>
-    </row>
-    <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C660" s="3"/>
+      <c r="D660" s="3"/>
+      <c r="E660" s="4"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
-      <c r="C661" s="67"/>
-      <c r="D661" s="67"/>
-      <c r="E661" s="68"/>
-    </row>
-    <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C661" s="3"/>
+      <c r="D661" s="3"/>
+      <c r="E661" s="4"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
-      <c r="C662" s="67"/>
-      <c r="D662" s="67"/>
-      <c r="E662" s="68"/>
-    </row>
-    <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C662" s="3"/>
+      <c r="D662" s="3"/>
+      <c r="E662" s="4"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
-      <c r="C663" s="67"/>
-      <c r="D663" s="67"/>
-      <c r="E663" s="68"/>
-    </row>
-    <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C663" s="3"/>
+      <c r="D663" s="3"/>
+      <c r="E663" s="4"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
-      <c r="C664" s="67"/>
-      <c r="D664" s="67"/>
-      <c r="E664" s="68"/>
-    </row>
-    <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C664" s="3"/>
+      <c r="D664" s="3"/>
+      <c r="E664" s="4"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
-      <c r="C665" s="67"/>
-      <c r="D665" s="67"/>
-      <c r="E665" s="68"/>
-    </row>
-    <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C665" s="3"/>
+      <c r="D665" s="3"/>
+      <c r="E665" s="4"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
-      <c r="C666" s="67"/>
-      <c r="D666" s="67"/>
-      <c r="E666" s="68"/>
-    </row>
-    <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C666" s="3"/>
+      <c r="D666" s="3"/>
+      <c r="E666" s="4"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
-      <c r="C667" s="67"/>
-      <c r="D667" s="67"/>
-      <c r="E667" s="68"/>
-    </row>
-    <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C667" s="3"/>
+      <c r="D667" s="3"/>
+      <c r="E667" s="4"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
-      <c r="C668" s="67"/>
-      <c r="D668" s="67"/>
-      <c r="E668" s="68"/>
-    </row>
-    <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C668" s="3"/>
+      <c r="D668" s="3"/>
+      <c r="E668" s="4"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
-      <c r="C669" s="67"/>
-      <c r="D669" s="67"/>
-      <c r="E669" s="68"/>
-    </row>
-    <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C669" s="3"/>
+      <c r="D669" s="3"/>
+      <c r="E669" s="4"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
-      <c r="C670" s="67"/>
-      <c r="D670" s="67"/>
-      <c r="E670" s="68"/>
-    </row>
-    <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C670" s="3"/>
+      <c r="D670" s="3"/>
+      <c r="E670" s="4"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
-      <c r="C671" s="67"/>
-      <c r="D671" s="67"/>
-      <c r="E671" s="68"/>
-    </row>
-    <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C671" s="3"/>
+      <c r="D671" s="3"/>
+      <c r="E671" s="4"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
-      <c r="C672" s="67"/>
-      <c r="D672" s="67"/>
-      <c r="E672" s="68"/>
-    </row>
-    <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C672" s="3"/>
+      <c r="D672" s="3"/>
+      <c r="E672" s="4"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
-      <c r="C673" s="67"/>
-      <c r="D673" s="67"/>
-      <c r="E673" s="68"/>
-    </row>
-    <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C673" s="3"/>
+      <c r="D673" s="3"/>
+      <c r="E673" s="4"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
-      <c r="C674" s="67"/>
-      <c r="D674" s="67"/>
-      <c r="E674" s="68"/>
-    </row>
-    <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C674" s="3"/>
+      <c r="D674" s="3"/>
+      <c r="E674" s="4"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
-      <c r="C675" s="67"/>
-      <c r="D675" s="67"/>
-      <c r="E675" s="68"/>
-    </row>
-    <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C675" s="3"/>
+      <c r="D675" s="3"/>
+      <c r="E675" s="4"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
-      <c r="C676" s="67"/>
-      <c r="D676" s="67"/>
-      <c r="E676" s="68"/>
-    </row>
-    <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C676" s="3"/>
+      <c r="D676" s="3"/>
+      <c r="E676" s="4"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
-      <c r="C677" s="67"/>
-      <c r="D677" s="67"/>
-      <c r="E677" s="68"/>
-    </row>
-    <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C677" s="3"/>
+      <c r="D677" s="3"/>
+      <c r="E677" s="4"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
-      <c r="C678" s="67"/>
-      <c r="D678" s="67"/>
-      <c r="E678" s="68"/>
-    </row>
-    <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C678" s="3"/>
+      <c r="D678" s="3"/>
+      <c r="E678" s="4"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
-      <c r="C679" s="67"/>
-      <c r="D679" s="67"/>
-      <c r="E679" s="68"/>
-    </row>
-    <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C679" s="3"/>
+      <c r="D679" s="3"/>
+      <c r="E679" s="4"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
-      <c r="C680" s="67"/>
-      <c r="D680" s="67"/>
-      <c r="E680" s="68"/>
-    </row>
-    <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C680" s="3"/>
+      <c r="D680" s="3"/>
+      <c r="E680" s="4"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
-      <c r="C681" s="67"/>
-      <c r="D681" s="67"/>
-      <c r="E681" s="68"/>
-    </row>
-    <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C681" s="3"/>
+      <c r="D681" s="3"/>
+      <c r="E681" s="4"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
-      <c r="C682" s="67"/>
-      <c r="D682" s="67"/>
-      <c r="E682" s="68"/>
-    </row>
-    <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C682" s="3"/>
+      <c r="D682" s="3"/>
+      <c r="E682" s="4"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
-      <c r="C683" s="67"/>
-      <c r="D683" s="67"/>
-      <c r="E683" s="68"/>
-    </row>
-    <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C683" s="3"/>
+      <c r="D683" s="3"/>
+      <c r="E683" s="4"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
-      <c r="C684" s="67"/>
-      <c r="D684" s="67"/>
-      <c r="E684" s="68"/>
-    </row>
-    <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C684" s="3"/>
+      <c r="D684" s="3"/>
+      <c r="E684" s="4"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
-      <c r="C685" s="67"/>
-      <c r="D685" s="67"/>
-      <c r="E685" s="68"/>
-    </row>
-    <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C685" s="3"/>
+      <c r="D685" s="3"/>
+      <c r="E685" s="4"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
-      <c r="C686" s="67"/>
-      <c r="D686" s="67"/>
-      <c r="E686" s="68"/>
-    </row>
-    <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C686" s="3"/>
+      <c r="D686" s="3"/>
+      <c r="E686" s="4"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
-      <c r="C687" s="67"/>
-      <c r="D687" s="67"/>
-      <c r="E687" s="68"/>
-    </row>
-    <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C687" s="3"/>
+      <c r="D687" s="3"/>
+      <c r="E687" s="4"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
-      <c r="C688" s="67"/>
-      <c r="D688" s="67"/>
-      <c r="E688" s="68"/>
-    </row>
-    <row r="689" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C688" s="3"/>
+      <c r="D688" s="3"/>
+      <c r="E688" s="4"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
-      <c r="C689" s="67"/>
-      <c r="D689" s="67"/>
-      <c r="E689" s="68"/>
-    </row>
-    <row r="690" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C689" s="3"/>
+      <c r="D689" s="3"/>
+      <c r="E689" s="4"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
-      <c r="C690" s="67"/>
-      <c r="D690" s="67"/>
-      <c r="E690" s="68"/>
-    </row>
-    <row r="691" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C690" s="3"/>
+      <c r="D690" s="3"/>
+      <c r="E690" s="4"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
-      <c r="C691" s="67"/>
-      <c r="D691" s="67"/>
-      <c r="E691" s="68"/>
-    </row>
-    <row r="692" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C691" s="3"/>
+      <c r="D691" s="3"/>
+      <c r="E691" s="4"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
-      <c r="C692" s="67"/>
-      <c r="D692" s="67"/>
-      <c r="E692" s="68"/>
-    </row>
-    <row r="693" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C692" s="3"/>
+      <c r="D692" s="3"/>
+      <c r="E692" s="4"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
-      <c r="C693" s="67"/>
-      <c r="D693" s="67"/>
-      <c r="E693" s="68"/>
-    </row>
-    <row r="694" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q694" s="4"/>
-    </row>
-    <row r="695" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C693" s="3"/>
+      <c r="D693" s="3"/>
+      <c r="E693" s="4"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="A694" s="1"/>
+      <c r="B694" s="1"/>
+      <c r="C694" s="3"/>
+      <c r="D694" s="3"/>
+      <c r="E694" s="4"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
       <c r="Q695" s="4"/>
     </row>
-    <row r="696" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" ht="15.75" customHeight="1">
       <c r="Q696" s="4"/>
     </row>
-    <row r="697" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" ht="15.75" customHeight="1">
       <c r="Q697" s="4"/>
     </row>
-    <row r="698" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" ht="15.75" customHeight="1">
       <c r="Q698" s="4"/>
     </row>
-    <row r="699" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" ht="15.75" customHeight="1">
       <c r="Q699" s="4"/>
     </row>
-    <row r="700" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" ht="15.75" customHeight="1">
       <c r="Q700" s="4"/>
     </row>
-    <row r="701" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" ht="15.75" customHeight="1">
       <c r="Q701" s="4"/>
     </row>
-    <row r="702" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" ht="15.75" customHeight="1">
       <c r="Q702" s="4"/>
     </row>
-    <row r="703" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" ht="15.75" customHeight="1">
       <c r="Q703" s="4"/>
     </row>
-    <row r="704" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" ht="15.75" customHeight="1">
       <c r="Q704" s="4"/>
     </row>
-    <row r="705" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" ht="15.75" customHeight="1">
       <c r="Q705" s="4"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="Q706" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16737,7 +16663,8 @@
     <mergeCell ref="A23:A27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="3" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>